--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_6_33.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_6_33.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1754905.436411966</v>
+        <v>1833422.137863187</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13236035.67526076</v>
+        <v>11843801.51954496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1763776.908577128</v>
+        <v>612367.9462114766</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6581029.754941172</v>
+        <v>6956092.778925553</v>
       </c>
     </row>
     <row r="11">
@@ -665,10 +667,10 @@
         <v>19.05969460684969</v>
       </c>
       <c r="E2" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F2" t="n">
-        <v>400.896903601767</v>
+        <v>30.49859044678092</v>
       </c>
       <c r="G2" t="n">
         <v>0.2956717864458369</v>
@@ -707,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
         <v>218.7163152458132</v>
@@ -716,7 +718,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
         <v>392.4274362026566</v>
@@ -725,7 +727,7 @@
         <v>7.602798843930202</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="3">
@@ -826,13 +828,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>53.55247012296624</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
         <v>98.77088257712678</v>
@@ -862,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,19 +873,19 @@
         <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>103.8171286208124</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.64988064861473</v>
+        <v>170.2553066834602</v>
       </c>
       <c r="C5" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D5" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -947,16 +949,16 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>270.3432264627886</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>7.602798843930202</v>
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1063,16 +1065,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>74.92007473654026</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>106.4996628416748</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
         <v>278.8943527180514</v>
@@ -1120,7 +1122,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="8">
@@ -1136,7 +1138,7 @@
         <v>22.63172268683286</v>
       </c>
       <c r="D8" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
         <v>21.71717045362101</v>
@@ -1148,7 +1150,7 @@
         <v>0.2956717864458369</v>
       </c>
       <c r="H8" t="n">
-        <v>225.7156176017064</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>407.6027988439302</v>
+        <v>181.1434624630639</v>
       </c>
       <c r="Y8" t="n">
         <v>401.2838973446586</v>
@@ -1291,13 +1293,13 @@
         <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>127.800783542038</v>
       </c>
       <c r="F10" t="n">
         <v>170.1431564831852</v>
@@ -1306,10 +1308,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1351,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>10.07472789985387</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>415.6498806486148</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>421.7171704536211</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>420.8729399924938</v>
       </c>
       <c r="G11" t="n">
-        <v>400.2956717864458</v>
+        <v>400.2956717864459</v>
       </c>
       <c r="H11" t="n">
-        <v>222.1996460386107</v>
+        <v>294.8896947407056</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>34.54790254396359</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>103.3236211855911</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458132</v>
+        <v>218.7163152458135</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095518</v>
+        <v>255.7713603095519</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>353.9145207250131</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>407.6027988439303</v>
       </c>
       <c r="Y11" t="n">
         <v>401.2838973446586</v>
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>97.60112162899995</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
@@ -1604,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>415.6498806486148</v>
       </c>
       <c r="C14" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>421.7171704536211</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>420.8729399924938</v>
       </c>
       <c r="G14" t="n">
-        <v>400.2956717864458</v>
+        <v>400.2956717864459</v>
       </c>
       <c r="H14" t="n">
-        <v>139.3706716801221</v>
+        <v>294.8896947407056</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.54790254396359</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.323621185591</v>
+        <v>103.3236211855911</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458132</v>
+        <v>218.7163152458133</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095518</v>
+        <v>255.7713603095519</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>353.9145207250131</v>
       </c>
       <c r="W14" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>407.6027988439303</v>
       </c>
       <c r="Y14" t="n">
         <v>401.2838973446586</v>
@@ -1765,22 +1767,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
         <v>98.77088257712678</v>
@@ -1810,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>165.7104322459704</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
@@ -1831,7 +1833,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
-        <v>10.13027871352568</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>415.6498806486159</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
         <v>422.6317226868329</v>
@@ -1853,7 +1855,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924937</v>
+        <v>420.8729399924938</v>
       </c>
       <c r="G17" t="n">
         <v>400.2956717864458</v>
@@ -1862,7 +1864,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396359</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>103.323621185591</v>
+        <v>103.3236211855911</v>
       </c>
       <c r="T17" t="n">
-        <v>218.7163152458132</v>
+        <v>218.7163152458133</v>
       </c>
       <c r="U17" t="n">
-        <v>255.7713603095518</v>
+        <v>255.771360309553</v>
       </c>
       <c r="V17" t="n">
-        <v>353.914520725013</v>
+        <v>353.9145207250131</v>
       </c>
       <c r="W17" t="n">
         <v>392.4274362026566</v>
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>170.2528374898731</v>
@@ -2008,19 +2010,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>75.30362264056009</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>3.554365680750488</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
         <v>168.4336970060565</v>
@@ -2065,7 +2067,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
         <v>224.0793406271554</v>
@@ -2090,16 +2092,16 @@
         <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924937</v>
+        <v>420.8729399924938</v>
       </c>
       <c r="G20" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H20" t="n">
-        <v>294.8896947407055</v>
+        <v>294.8896947407056</v>
       </c>
       <c r="I20" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396359</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2132,13 +2134,13 @@
         <v>103.323621185591</v>
       </c>
       <c r="T20" t="n">
-        <v>218.7163152458132</v>
+        <v>218.7163152458133</v>
       </c>
       <c r="U20" t="n">
-        <v>255.7713603095518</v>
+        <v>255.7713603095519</v>
       </c>
       <c r="V20" t="n">
-        <v>353.9145207250137</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
         <v>392.4274362026566</v>
@@ -2147,7 +2149,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
-        <v>401.2838973446586</v>
+        <v>401.2838973446598</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>75.25534642052892</v>
       </c>
       <c r="C22" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
         <v>168.4336970060565</v>
@@ -2293,19 +2295,19 @@
         <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>216.5517457234298</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -2479,22 +2481,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>51.58543740429417</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>33.44747163260695</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2530,7 +2532,7 @@
         <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
         <v>278.8943527180514</v>
@@ -2539,10 +2541,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -2710,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>42.18832536068085</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
         <v>168.4336970060565</v>
@@ -2773,13 +2775,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>240.1382575886529</v>
+        <v>135.7468035496482</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="29">
@@ -2947,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3004,16 +3006,16 @@
         <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>138.142323949269</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
-        <v>240.1382575886529</v>
+        <v>148.1612423902099</v>
       </c>
       <c r="Y31" t="n">
         <v>224.0793406271554</v>
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>186.1591330817291</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>51.58543740429417</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,13 +3237,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
         <v>278.8943527180514</v>
@@ -3421,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>169.8146376940569</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>161.683605144497</v>
@@ -3433,16 +3435,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>66.82300722904168</v>
       </c>
       <c r="H37" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
         <v>278.8943527180514</v>
@@ -3490,7 +3492,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3658,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>71.04375511693026</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
         <v>164.5944000087102</v>
@@ -3679,7 +3681,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>278.8943527180514</v>
@@ -3727,7 +3729,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>162.6830949419553</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
         <v>422.6317226868329</v>
@@ -3755,10 +3757,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
-        <v>65.29158695872384</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>353.9145207250137</v>
       </c>
       <c r="W41" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
         <v>401.2838973446586</v>
@@ -3904,19 +3906,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>19.64740624207679</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>34.21516834031314</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3949,22 +3951,22 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="44">
@@ -3980,22 +3982,22 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>227.3400840035434</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.8896947407066</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7713603095518</v>
+        <v>255.7713603095512</v>
       </c>
       <c r="V44" t="n">
         <v>353.914520725013</v>
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>170.2528374898731</v>
@@ -4141,13 +4143,13 @@
         <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>23.2166709904399</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
         <v>142.3583058069271</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4189,16 +4191,16 @@
         <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>170.5586896897042</v>
       </c>
       <c r="Y46" t="n">
         <v>224.0793406271554</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>945.1433719350489</v>
+        <v>168.7534004685739</v>
       </c>
       <c r="C2" t="n">
-        <v>922.2830459887531</v>
+        <v>145.8930745222781</v>
       </c>
       <c r="D2" t="n">
-        <v>903.0308292141574</v>
+        <v>126.6408577476824</v>
       </c>
       <c r="E2" t="n">
-        <v>477.053889362015</v>
+        <v>104.7043219359441</v>
       </c>
       <c r="F2" t="n">
-        <v>72.10752208750284</v>
+        <v>73.89766491899363</v>
       </c>
       <c r="G2" t="n">
-        <v>71.80886371735554</v>
+        <v>73.59900654884632</v>
       </c>
       <c r="H2" t="n">
-        <v>71.80886371735554</v>
+        <v>73.59900654884632</v>
       </c>
       <c r="I2" t="n">
-        <v>36.91199246082674</v>
+        <v>38.70213529231752</v>
       </c>
       <c r="J2" t="n">
-        <v>36.91199246082674</v>
+        <v>38.70213529231752</v>
       </c>
       <c r="K2" t="n">
-        <v>493.6978991635576</v>
+        <v>517.6410595347469</v>
       </c>
       <c r="L2" t="n">
-        <v>932.027809635875</v>
+        <v>517.6410595347469</v>
       </c>
       <c r="M2" t="n">
-        <v>932.027809635875</v>
+        <v>977.2289161310175</v>
       </c>
       <c r="N2" t="n">
-        <v>932.027809635875</v>
+        <v>1456.167840373447</v>
       </c>
       <c r="O2" t="n">
-        <v>1388.813716338606</v>
+        <v>1456.167840373447</v>
       </c>
       <c r="P2" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615876</v>
       </c>
       <c r="Q2" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615876</v>
       </c>
       <c r="R2" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615876</v>
       </c>
       <c r="S2" t="n">
-        <v>1845.599623041337</v>
+        <v>1830.739470489016</v>
       </c>
       <c r="T2" t="n">
-        <v>1624.67405208597</v>
+        <v>1609.81389953365</v>
       </c>
       <c r="U2" t="n">
-        <v>1366.319142682382</v>
+        <v>1351.458990130062</v>
       </c>
       <c r="V2" t="n">
-        <v>1366.319142682382</v>
+        <v>993.9695752563114</v>
       </c>
       <c r="W2" t="n">
-        <v>969.9277929827292</v>
+        <v>597.5782255566583</v>
       </c>
       <c r="X2" t="n">
-        <v>962.2481981908805</v>
+        <v>589.8986307648096</v>
       </c>
       <c r="Y2" t="n">
-        <v>960.9513321861749</v>
+        <v>184.5613607196999</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>604.0354834922822</v>
+        <v>605.8256263237728</v>
       </c>
       <c r="C3" t="n">
-        <v>486.529580009787</v>
+        <v>488.3197228412776</v>
       </c>
       <c r="D3" t="n">
-        <v>382.6896215250719</v>
+        <v>384.4797643565626</v>
       </c>
       <c r="E3" t="n">
-        <v>277.9876877980091</v>
+        <v>279.7778306294998</v>
       </c>
       <c r="F3" t="n">
-        <v>184.3418574809132</v>
+        <v>186.1320003124039</v>
       </c>
       <c r="G3" t="n">
-        <v>90.28808569851708</v>
+        <v>92.07822853000793</v>
       </c>
       <c r="H3" t="n">
-        <v>36.9119924608267</v>
+        <v>38.70213529231752</v>
       </c>
       <c r="I3" t="n">
-        <v>44.35863542273854</v>
+        <v>46.14877825422936</v>
       </c>
       <c r="J3" t="n">
-        <v>44.35863542273854</v>
+        <v>317.8462675338204</v>
       </c>
       <c r="K3" t="n">
-        <v>44.35863542273854</v>
+        <v>317.8462675338204</v>
       </c>
       <c r="L3" t="n">
-        <v>44.35863542273854</v>
+        <v>317.8462675338204</v>
       </c>
       <c r="M3" t="n">
-        <v>44.35863542273854</v>
+        <v>796.7851917762498</v>
       </c>
       <c r="N3" t="n">
-        <v>475.2419029331441</v>
+        <v>1275.724116018679</v>
       </c>
       <c r="O3" t="n">
-        <v>932.027809635875</v>
+        <v>1383.244289010048</v>
       </c>
       <c r="P3" t="n">
-        <v>1388.813716338606</v>
+        <v>1383.244289010048</v>
       </c>
       <c r="Q3" t="n">
-        <v>1845.599623041337</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="R3" t="n">
-        <v>1845.599623041337</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="S3" t="n">
-        <v>1764.275375602591</v>
+        <v>1766.065518434082</v>
       </c>
       <c r="T3" t="n">
-        <v>1622.39543990027</v>
+        <v>1624.18558273176</v>
       </c>
       <c r="U3" t="n">
-        <v>1437.627243819906</v>
+        <v>1439.417386651397</v>
       </c>
       <c r="V3" t="n">
-        <v>1232.654104959172</v>
+        <v>1234.444247790663</v>
       </c>
       <c r="W3" t="n">
-        <v>1036.13272779239</v>
+        <v>1037.92287062388</v>
       </c>
       <c r="X3" t="n">
-        <v>872.6553815590526</v>
+        <v>874.4455243905431</v>
       </c>
       <c r="Y3" t="n">
-        <v>732.9624929123449</v>
+        <v>734.7526357438355</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>858.5284764323908</v>
+        <v>1121.883257816554</v>
       </c>
       <c r="C4" t="n">
-        <v>686.5559133113068</v>
+        <v>949.9106946954704</v>
       </c>
       <c r="D4" t="n">
-        <v>523.2391404380775</v>
+        <v>786.5939218222411</v>
       </c>
       <c r="E4" t="n">
-        <v>357.030934590931</v>
+        <v>620.3857159750946</v>
       </c>
       <c r="F4" t="n">
-        <v>357.030934590931</v>
+        <v>448.523941749655</v>
       </c>
       <c r="G4" t="n">
-        <v>190.7739648851631</v>
+        <v>282.2669720438872</v>
       </c>
       <c r="H4" t="n">
-        <v>136.6805607205508</v>
+        <v>138.4707035520416</v>
       </c>
       <c r="I4" t="n">
-        <v>36.91199246082674</v>
+        <v>38.70213529231752</v>
       </c>
       <c r="J4" t="n">
-        <v>94.40332068498475</v>
+        <v>96.19346351647553</v>
       </c>
       <c r="K4" t="n">
-        <v>94.40332068498475</v>
+        <v>322.7210647223127</v>
       </c>
       <c r="L4" t="n">
-        <v>449.0926419794055</v>
+        <v>677.4103860167335</v>
       </c>
       <c r="M4" t="n">
-        <v>840.2784369496563</v>
+        <v>1068.596180986984</v>
       </c>
       <c r="N4" t="n">
-        <v>1217.769947825692</v>
+        <v>1446.08769186302</v>
       </c>
       <c r="O4" t="n">
-        <v>1573.198076505455</v>
+        <v>1517.507422453213</v>
       </c>
       <c r="P4" t="n">
-        <v>1718.599492800575</v>
+        <v>1808.106634375114</v>
       </c>
       <c r="Q4" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615876</v>
       </c>
       <c r="R4" t="n">
-        <v>1798.56100972851</v>
+        <v>1935.106764615876</v>
       </c>
       <c r="S4" t="n">
-        <v>1798.56100972851</v>
+        <v>1935.106764615876</v>
       </c>
       <c r="T4" t="n">
-        <v>1555.22166195441</v>
+        <v>1691.767416841776</v>
       </c>
       <c r="U4" t="n">
-        <v>1275.037213454714</v>
+        <v>1586.901630356107</v>
       </c>
       <c r="V4" t="n">
-        <v>1275.037213454714</v>
+        <v>1586.901630356107</v>
       </c>
       <c r="W4" t="n">
-        <v>1275.037213454714</v>
+        <v>1312.04922652862</v>
       </c>
       <c r="X4" t="n">
-        <v>1275.037213454714</v>
+        <v>1312.04922652862</v>
       </c>
       <c r="Y4" t="n">
-        <v>1048.694445144456</v>
+        <v>1312.04922652862</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>930.4243152146078</v>
+        <v>2043.959734409802</v>
       </c>
       <c r="C5" t="n">
-        <v>503.5235852279079</v>
+        <v>2021.099408463506</v>
       </c>
       <c r="D5" t="n">
-        <v>80.23096441290814</v>
+        <v>1597.806787648507</v>
       </c>
       <c r="E5" t="n">
-        <v>58.29442860116974</v>
+        <v>1171.829847796364</v>
       </c>
       <c r="F5" t="n">
-        <v>37.21065083097405</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="G5" t="n">
-        <v>36.91199246082674</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H5" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I5" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K5" t="n">
-        <v>358.3859952497895</v>
+        <v>116.829168004879</v>
       </c>
       <c r="L5" t="n">
-        <v>358.3859952497895</v>
+        <v>116.829168004879</v>
       </c>
       <c r="M5" t="n">
-        <v>358.3859952497895</v>
+        <v>667.4947029893171</v>
       </c>
       <c r="N5" t="n">
-        <v>815.1719019525203</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="O5" t="n">
-        <v>1271.957808655251</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="P5" t="n">
-        <v>1271.957808655251</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q5" t="n">
-        <v>1728.043288159434</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R5" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T5" t="n">
-        <v>1624.67405208597</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U5" t="n">
-        <v>1624.67405208597</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V5" t="n">
-        <v>1351.600085961941</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="W5" t="n">
-        <v>955.2087362622881</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="X5" t="n">
-        <v>947.5291414704394</v>
+        <v>2217.231657670528</v>
       </c>
       <c r="Y5" t="n">
-        <v>946.2322754657338</v>
+        <v>2215.934791665823</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>604.035483492282</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C6" t="n">
-        <v>486.5295800097867</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D6" t="n">
-        <v>382.6896215250718</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E6" t="n">
-        <v>277.987687798009</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F6" t="n">
-        <v>184.3418574809131</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G6" t="n">
-        <v>90.28808569851715</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H6" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>44.35863542273858</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J6" t="n">
-        <v>316.0561247023297</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="K6" t="n">
-        <v>316.0561247023297</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="L6" t="n">
-        <v>772.8420314050605</v>
+        <v>602.6104029955975</v>
       </c>
       <c r="M6" t="n">
-        <v>772.8420314050605</v>
+        <v>602.6104029955975</v>
       </c>
       <c r="N6" t="n">
-        <v>1229.627938107791</v>
+        <v>838.3748437825398</v>
       </c>
       <c r="O6" t="n">
-        <v>1686.413844810522</v>
+        <v>838.3748437825398</v>
       </c>
       <c r="P6" t="n">
-        <v>1686.413844810522</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q6" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R6" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S6" t="n">
-        <v>1764.275375602591</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T6" t="n">
-        <v>1622.395439900269</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U6" t="n">
-        <v>1437.627243819906</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V6" t="n">
-        <v>1232.654104959172</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W6" t="n">
-        <v>1036.132727792389</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X6" t="n">
-        <v>872.6553815590523</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y6" t="n">
-        <v>732.9624929123447</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>585.958846699892</v>
+        <v>451.3798346740465</v>
       </c>
       <c r="C7" t="n">
-        <v>585.958846699892</v>
+        <v>451.3798346740465</v>
       </c>
       <c r="D7" t="n">
-        <v>422.6420738266627</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="E7" t="n">
-        <v>422.6420738266627</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="F7" t="n">
-        <v>346.9652306584402</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="G7" t="n">
-        <v>180.7082609526723</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H7" t="n">
-        <v>36.91199246082674</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I7" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
-        <v>94.40332068498475</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K7" t="n">
-        <v>320.9309218908219</v>
+        <v>328.5171544792433</v>
       </c>
       <c r="L7" t="n">
-        <v>675.6202431852428</v>
+        <v>683.2064757736641</v>
       </c>
       <c r="M7" t="n">
-        <v>1066.806038155494</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N7" t="n">
-        <v>1363.171364120812</v>
+        <v>1451.883781619951</v>
       </c>
       <c r="O7" t="n">
-        <v>1718.599492800575</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P7" t="n">
-        <v>1718.599492800575</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q7" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R7" t="n">
-        <v>1798.56100972851</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S7" t="n">
-        <v>1628.425962247645</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T7" t="n">
-        <v>1385.086614473545</v>
+        <v>1947.200787969719</v>
       </c>
       <c r="U7" t="n">
-        <v>1385.086614473545</v>
+        <v>1667.016339470023</v>
       </c>
       <c r="V7" t="n">
-        <v>1103.375147081574</v>
+        <v>1385.304872078052</v>
       </c>
       <c r="W7" t="n">
-        <v>828.5227432540869</v>
+        <v>1110.452468250565</v>
       </c>
       <c r="X7" t="n">
-        <v>585.958846699892</v>
+        <v>867.88857169637</v>
       </c>
       <c r="Y7" t="n">
-        <v>585.958846699892</v>
+        <v>641.5458033861121</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>350.3390804688567</v>
+        <v>533.9701437626245</v>
       </c>
       <c r="C8" t="n">
-        <v>327.4787545225608</v>
+        <v>511.1098178163287</v>
       </c>
       <c r="D8" t="n">
-        <v>308.2265377479652</v>
+        <v>87.81719700132894</v>
       </c>
       <c r="E8" t="n">
-        <v>286.2900019362268</v>
+        <v>65.88066118959054</v>
       </c>
       <c r="F8" t="n">
-        <v>265.2062241660311</v>
+        <v>44.79688341939484</v>
       </c>
       <c r="G8" t="n">
-        <v>264.9075657958838</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H8" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I8" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>399.5154512777223</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K8" t="n">
-        <v>856.3013579804531</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L8" t="n">
-        <v>856.3013579804531</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M8" t="n">
-        <v>856.3013579804531</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N8" t="n">
-        <v>1313.087264683184</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="O8" t="n">
-        <v>1769.873171385915</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="P8" t="n">
-        <v>1769.873171385915</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="Q8" t="n">
-        <v>1845.599623041337</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R8" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>1845.599623041337</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T8" t="n">
-        <v>1845.599623041337</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U8" t="n">
-        <v>1587.244713637749</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="V8" t="n">
-        <v>1587.244713637749</v>
+        <v>1542.1289725064</v>
       </c>
       <c r="W8" t="n">
-        <v>1587.244713637749</v>
+        <v>1542.1289725064</v>
       </c>
       <c r="X8" t="n">
-        <v>1175.524714805496</v>
+        <v>1359.155778099264</v>
       </c>
       <c r="Y8" t="n">
-        <v>770.1874447603867</v>
+        <v>953.8185080541546</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>604.035483492282</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C9" t="n">
-        <v>486.5295800097867</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D9" t="n">
-        <v>382.6896215250718</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E9" t="n">
-        <v>277.987687798009</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F9" t="n">
-        <v>184.3418574809131</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G9" t="n">
-        <v>90.28808569851715</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H9" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>44.35863542273858</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J9" t="n">
-        <v>44.35863542273858</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K9" t="n">
-        <v>393.2225928484407</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="L9" t="n">
-        <v>850.0084995511716</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="M9" t="n">
-        <v>850.0084995511716</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="N9" t="n">
-        <v>1306.794406253902</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="O9" t="n">
-        <v>1306.794406253902</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="P9" t="n">
-        <v>1763.580312956633</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q9" t="n">
-        <v>1763.580312956633</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R9" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S9" t="n">
-        <v>1764.275375602591</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T9" t="n">
-        <v>1622.395439900269</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U9" t="n">
-        <v>1437.627243819906</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V9" t="n">
-        <v>1232.654104959172</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W9" t="n">
-        <v>1036.132727792389</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X9" t="n">
-        <v>872.6553815590523</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y9" t="n">
-        <v>732.9624929123447</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>848.3519836042556</v>
+        <v>946.7665737820055</v>
       </c>
       <c r="C10" t="n">
-        <v>848.3519836042556</v>
+        <v>774.7940106609215</v>
       </c>
       <c r="D10" t="n">
-        <v>685.0352107310263</v>
+        <v>611.4772377876922</v>
       </c>
       <c r="E10" t="n">
-        <v>518.8270048838798</v>
+        <v>482.385537240179</v>
       </c>
       <c r="F10" t="n">
-        <v>346.9652306584402</v>
+        <v>310.5237630147394</v>
       </c>
       <c r="G10" t="n">
-        <v>180.7082609526723</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="H10" t="n">
-        <v>36.91199246082674</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I10" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J10" t="n">
-        <v>94.40332068498475</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K10" t="n">
-        <v>320.9309218908219</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L10" t="n">
-        <v>675.6202431852428</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M10" t="n">
-        <v>695.080641322875</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N10" t="n">
-        <v>1072.572152198911</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O10" t="n">
-        <v>1428.000280878674</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P10" t="n">
-        <v>1718.599492800575</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q10" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>1798.56100972851</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S10" t="n">
-        <v>1798.56100972851</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="T10" t="n">
-        <v>1555.22166195441</v>
+        <v>1934.533291375449</v>
       </c>
       <c r="U10" t="n">
-        <v>1275.037213454714</v>
+        <v>1654.348842875753</v>
       </c>
       <c r="V10" t="n">
-        <v>1275.037213454714</v>
+        <v>1654.348842875753</v>
       </c>
       <c r="W10" t="n">
-        <v>1264.860720626579</v>
+        <v>1379.496439048266</v>
       </c>
       <c r="X10" t="n">
-        <v>1264.860720626579</v>
+        <v>1136.932542494071</v>
       </c>
       <c r="Y10" t="n">
-        <v>1038.517952316321</v>
+        <v>1136.932542494071</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1550.536959748381</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C11" t="n">
-        <v>1550.536959748381</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D11" t="n">
-        <v>1127.244338933381</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E11" t="n">
-        <v>701.2673990812385</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F11" t="n">
-        <v>701.2673990812385</v>
+        <v>839.407025598874</v>
       </c>
       <c r="G11" t="n">
-        <v>296.9283366706871</v>
+        <v>435.0679631883227</v>
       </c>
       <c r="H11" t="n">
-        <v>72.48424976299957</v>
+        <v>137.1995846623574</v>
       </c>
       <c r="I11" t="n">
-        <v>72.48424976299957</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J11" t="n">
-        <v>435.0877085798951</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K11" t="n">
-        <v>435.0877085798951</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L11" t="n">
-        <v>1332.080299397015</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M11" t="n">
-        <v>2229.072890214134</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N11" t="n">
-        <v>2229.072890214134</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="O11" t="n">
-        <v>3050.570673763892</v>
+        <v>3959.47027938737</v>
       </c>
       <c r="P11" t="n">
-        <v>3050.570673763892</v>
+        <v>4667.749558545297</v>
       </c>
       <c r="Q11" t="n">
-        <v>3506.656153268075</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R11" t="n">
-        <v>3624.212488149978</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S11" t="n">
-        <v>3624.212488149978</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T11" t="n">
-        <v>3403.286917194611</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U11" t="n">
-        <v>3144.932007791023</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V11" t="n">
-        <v>2787.442592917273</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W11" t="n">
-        <v>2787.442592917273</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X11" t="n">
-        <v>2375.72259408502</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y11" t="n">
-        <v>1970.385324039911</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2382.648348600923</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C12" t="n">
-        <v>2265.142445118428</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D12" t="n">
-        <v>2161.302486633713</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E12" t="n">
-        <v>2056.600552906651</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F12" t="n">
-        <v>1962.954722589555</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G12" t="n">
-        <v>1868.900950807159</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H12" t="n">
-        <v>1815.524857569468</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I12" t="n">
-        <v>1822.97150053138</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J12" t="n">
-        <v>2094.668989810971</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K12" t="n">
-        <v>2094.668989810971</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L12" t="n">
-        <v>2931.467797893877</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M12" t="n">
-        <v>3542.193178065275</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N12" t="n">
-        <v>3542.193178065275</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="O12" t="n">
-        <v>3542.193178065275</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="P12" t="n">
-        <v>3542.193178065275</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q12" t="n">
-        <v>3542.193178065275</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R12" t="n">
-        <v>3624.212488149978</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S12" t="n">
-        <v>3542.888240711232</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T12" t="n">
-        <v>3401.008305008911</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U12" t="n">
-        <v>3216.240108928547</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V12" t="n">
-        <v>3011.266970067813</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W12" t="n">
-        <v>2814.745592901031</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X12" t="n">
-        <v>2651.268246667694</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y12" t="n">
-        <v>2511.575358020986</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1155.665372287236</v>
+        <v>516.5477476675582</v>
       </c>
       <c r="C13" t="n">
-        <v>983.6928091661524</v>
+        <v>516.5477476675582</v>
       </c>
       <c r="D13" t="n">
-        <v>820.3760362929231</v>
+        <v>516.5477476675582</v>
       </c>
       <c r="E13" t="n">
-        <v>654.1678304457766</v>
+        <v>516.5477476675582</v>
       </c>
       <c r="F13" t="n">
-        <v>482.3060562203371</v>
+        <v>344.6859734421186</v>
       </c>
       <c r="G13" t="n">
-        <v>316.0490865145692</v>
+        <v>344.6859734421186</v>
       </c>
       <c r="H13" t="n">
-        <v>172.2528180227236</v>
+        <v>200.8897049502729</v>
       </c>
       <c r="I13" t="n">
-        <v>72.48424976299957</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J13" t="n">
-        <v>129.9755779871576</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K13" t="n">
-        <v>356.5031791929948</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L13" t="n">
-        <v>711.1925004874156</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M13" t="n">
-        <v>1102.378295457666</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N13" t="n">
-        <v>1479.869806333702</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O13" t="n">
-        <v>1835.297935013465</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P13" t="n">
-        <v>2125.897146935366</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q13" t="n">
-        <v>2252.897277176128</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R13" t="n">
-        <v>2252.897277176128</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S13" t="n">
-        <v>2252.897277176128</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T13" t="n">
-        <v>2252.897277176128</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U13" t="n">
-        <v>2252.897277176128</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V13" t="n">
-        <v>2089.590409691242</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W13" t="n">
-        <v>1814.738005863755</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X13" t="n">
-        <v>1572.17410930956</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y13" t="n">
-        <v>1345.831340999302</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1469.626680213398</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C14" t="n">
-        <v>1042.725950226698</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D14" t="n">
-        <v>1042.725950226698</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E14" t="n">
-        <v>1042.725950226698</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F14" t="n">
-        <v>617.6017684160986</v>
+        <v>839.407025598874</v>
       </c>
       <c r="G14" t="n">
-        <v>213.2627060055472</v>
+        <v>435.0679631883227</v>
       </c>
       <c r="H14" t="n">
-        <v>72.48424976299957</v>
+        <v>137.1995846623574</v>
       </c>
       <c r="I14" t="n">
-        <v>72.48424976299957</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J14" t="n">
-        <v>152.0180135075251</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K14" t="n">
-        <v>867.5263214830242</v>
+        <v>1125.089101572745</v>
       </c>
       <c r="L14" t="n">
-        <v>1764.518912300144</v>
+        <v>1125.089101572745</v>
       </c>
       <c r="M14" t="n">
-        <v>1764.518912300144</v>
+        <v>2129.375202991803</v>
       </c>
       <c r="N14" t="n">
-        <v>2661.511503117263</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O14" t="n">
-        <v>3506.656153268075</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P14" t="n">
-        <v>3506.656153268075</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q14" t="n">
-        <v>3506.656153268075</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R14" t="n">
-        <v>3624.212488149978</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S14" t="n">
-        <v>3519.845194023118</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T14" t="n">
-        <v>3298.919623067752</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U14" t="n">
-        <v>3040.564713664164</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V14" t="n">
-        <v>2683.075298790413</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W14" t="n">
-        <v>2286.683949090761</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X14" t="n">
-        <v>1874.963950258508</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y14" t="n">
-        <v>1469.626680213398</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>639.6077407944548</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C15" t="n">
-        <v>522.1018373119596</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D15" t="n">
-        <v>418.2618788272446</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E15" t="n">
-        <v>313.5599451001818</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F15" t="n">
-        <v>219.914114783086</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G15" t="n">
-        <v>125.86034300069</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H15" t="n">
-        <v>72.48424976299957</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I15" t="n">
-        <v>72.48424976299957</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J15" t="n">
-        <v>344.1817390425907</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K15" t="n">
-        <v>344.1817390425907</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L15" t="n">
-        <v>1180.980547125497</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="M15" t="n">
-        <v>1799.152570258806</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="N15" t="n">
-        <v>1799.152570258806</v>
+        <v>1782.102586447038</v>
       </c>
       <c r="O15" t="n">
-        <v>1799.152570258806</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P15" t="n">
-        <v>1799.152570258806</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q15" t="n">
-        <v>1799.152570258806</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R15" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S15" t="n">
-        <v>1799.847632904764</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T15" t="n">
-        <v>1657.967697202442</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U15" t="n">
-        <v>1473.199501122079</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V15" t="n">
-        <v>1268.226362261345</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W15" t="n">
-        <v>1071.704985094562</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X15" t="n">
-        <v>908.2276388612252</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y15" t="n">
-        <v>768.5347502145175</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>839.8965406743068</v>
+        <v>684.0483191256287</v>
       </c>
       <c r="C16" t="n">
-        <v>839.8965406743068</v>
+        <v>512.0757560045447</v>
       </c>
       <c r="D16" t="n">
-        <v>676.5797678010775</v>
+        <v>512.0757560045447</v>
       </c>
       <c r="E16" t="n">
-        <v>510.3715619539311</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="F16" t="n">
-        <v>338.5097877284915</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="G16" t="n">
-        <v>172.2528180227236</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H16" t="n">
-        <v>172.2528180227236</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I16" t="n">
-        <v>72.48424976299957</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J16" t="n">
-        <v>129.9755779871576</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K16" t="n">
-        <v>356.5031791929948</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L16" t="n">
-        <v>711.1925004874156</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M16" t="n">
-        <v>1102.378295457666</v>
+        <v>1132.19675910049</v>
       </c>
       <c r="N16" t="n">
-        <v>1479.869806333702</v>
+        <v>1509.688269976526</v>
       </c>
       <c r="O16" t="n">
-        <v>1835.297935013465</v>
+        <v>1865.116398656289</v>
       </c>
       <c r="P16" t="n">
-        <v>2125.897146935366</v>
+        <v>2155.71561057819</v>
       </c>
       <c r="Q16" t="n">
-        <v>2252.897277176128</v>
+        <v>2282.715740818951</v>
       </c>
       <c r="R16" t="n">
-        <v>2252.897277176128</v>
+        <v>2235.677127506125</v>
       </c>
       <c r="S16" t="n">
-        <v>2082.762229695263</v>
+        <v>2065.54208002526</v>
       </c>
       <c r="T16" t="n">
-        <v>1839.422881921163</v>
+        <v>1898.15780502933</v>
       </c>
       <c r="U16" t="n">
-        <v>1839.422881921163</v>
+        <v>1617.973356529634</v>
       </c>
       <c r="V16" t="n">
-        <v>1557.711414529191</v>
+        <v>1617.973356529634</v>
       </c>
       <c r="W16" t="n">
-        <v>1282.859010701704</v>
+        <v>1343.120952702147</v>
       </c>
       <c r="X16" t="n">
-        <v>1040.29511414751</v>
+        <v>1100.557056147952</v>
       </c>
       <c r="Y16" t="n">
-        <v>1030.062509386373</v>
+        <v>874.2142878376944</v>
       </c>
     </row>
     <row r="17">
@@ -5501,13 +5503,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883226</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623574</v>
       </c>
       <c r="I17" t="n">
         <v>102.3027134058285</v>
@@ -5516,10 +5518,10 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K17" t="n">
-        <v>786.1869982294937</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>1715.81204584877</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
         <v>2720.098147267829</v>
@@ -5549,16 +5551,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X17" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y17" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="18">
@@ -5595,19 +5597,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K18" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L18" t="n">
-        <v>939.1015214887346</v>
+        <v>1529.586448057074</v>
       </c>
       <c r="M18" t="n">
-        <v>1910.990343986338</v>
+        <v>1529.586448057074</v>
       </c>
       <c r="N18" t="n">
-        <v>1910.990343986338</v>
+        <v>1529.586448057074</v>
       </c>
       <c r="O18" t="n">
-        <v>1910.990343986338</v>
+        <v>1529.586448057074</v>
       </c>
       <c r="P18" t="n">
         <v>1910.990343986338</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3448.404218294985</v>
+        <v>516.5477476675541</v>
       </c>
       <c r="C19" t="n">
-        <v>3276.431655173901</v>
+        <v>344.57518454647</v>
       </c>
       <c r="D19" t="n">
-        <v>3276.431655173901</v>
+        <v>344.57518454647</v>
       </c>
       <c r="E19" t="n">
-        <v>3276.431655173901</v>
+        <v>178.3669786993236</v>
       </c>
       <c r="F19" t="n">
-        <v>3104.569880948461</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G19" t="n">
-        <v>2938.312911242693</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H19" t="n">
-        <v>2938.312911242693</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I19" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K19" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L19" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M19" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N19" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O19" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P19" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q19" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818953</v>
       </c>
       <c r="R19" t="n">
-        <v>5115.135670291427</v>
+        <v>2235.677127506126</v>
       </c>
       <c r="S19" t="n">
-        <v>4945.000622810562</v>
+        <v>2065.542080025261</v>
       </c>
       <c r="T19" t="n">
-        <v>4701.661275036462</v>
+        <v>1822.202732251161</v>
       </c>
       <c r="U19" t="n">
-        <v>4421.476826536767</v>
+        <v>1542.018283751465</v>
       </c>
       <c r="V19" t="n">
-        <v>4139.765359144795</v>
+        <v>1260.306816359494</v>
       </c>
       <c r="W19" t="n">
-        <v>3864.912955317308</v>
+        <v>985.4544125320069</v>
       </c>
       <c r="X19" t="n">
-        <v>3864.912955317308</v>
+        <v>742.890515977812</v>
       </c>
       <c r="Y19" t="n">
-        <v>3638.57018700705</v>
+        <v>516.5477476675541</v>
       </c>
     </row>
     <row r="20">
@@ -5738,40 +5740,40 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988738</v>
+        <v>839.407025598874</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883227</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623574</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>464.9061722227241</v>
+        <v>292.0244587153436</v>
       </c>
       <c r="K20" t="n">
-        <v>1180.414480198223</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="L20" t="n">
-        <v>2110.0395278175</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="M20" t="n">
-        <v>3114.325629236558</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N20" t="n">
-        <v>4090.576687723259</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O20" t="n">
-        <v>4090.576687723259</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P20" t="n">
-        <v>4798.855966881186</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q20" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R20" t="n">
         <v>5115.135670291427</v>
@@ -5786,13 +5788,13 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y20" t="n">
         <v>2960.549862354846</v>
@@ -5826,31 +5828,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K21" t="n">
-        <v>692.7876399741681</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L21" t="n">
-        <v>1021.509065974867</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="M21" t="n">
-        <v>1021.509065974867</v>
+        <v>1165.735894343786</v>
       </c>
       <c r="N21" t="n">
-        <v>1021.509065974867</v>
+        <v>1165.735894343786</v>
       </c>
       <c r="O21" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="P21" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q21" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R21" t="n">
         <v>1910.990343986338</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1185.483835930065</v>
+        <v>440.5322462326804</v>
       </c>
       <c r="C22" t="n">
-        <v>1013.511272808982</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="D22" t="n">
-        <v>850.1944999357522</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="E22" t="n">
-        <v>683.9862940886057</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="F22" t="n">
-        <v>512.1245198631661</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G22" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H22" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I22" t="n">
         <v>102.3027134058285</v>
@@ -5932,28 +5934,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S22" t="n">
-        <v>2112.580693338092</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T22" t="n">
-        <v>1869.241345563992</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U22" t="n">
-        <v>1869.241345563992</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V22" t="n">
-        <v>1869.241345563992</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W22" t="n">
-        <v>1594.388941736505</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X22" t="n">
-        <v>1594.388941736505</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y22" t="n">
-        <v>1375.649804642131</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="23">
@@ -5987,13 +5989,13 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>366.6855125151251</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>1082.193820490624</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="L23" t="n">
-        <v>2011.818868109901</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="M23" t="n">
         <v>2011.818868109901</v>
@@ -6069,25 +6071,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K24" t="n">
-        <v>102.3027134058285</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="L24" t="n">
-        <v>102.3027134058285</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="M24" t="n">
-        <v>821.6753975134684</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="N24" t="n">
-        <v>1910.990343986338</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="O24" t="n">
-        <v>1910.990343986338</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P24" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q24" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R24" t="n">
         <v>1910.990343986338</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1075.472892319641</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="C25" t="n">
-        <v>903.500329198557</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="D25" t="n">
-        <v>740.1835563253277</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="E25" t="n">
-        <v>573.9753504781812</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F25" t="n">
-        <v>402.1135762527416</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G25" t="n">
-        <v>235.8566065469738</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H25" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I25" t="n">
         <v>102.3027134058285</v>
@@ -6178,19 +6180,19 @@
         <v>1822.202732251165</v>
       </c>
       <c r="U25" t="n">
-        <v>1822.202732251165</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V25" t="n">
-        <v>1540.491264859194</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W25" t="n">
-        <v>1265.638861031707</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X25" t="n">
-        <v>1265.638861031707</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y25" t="n">
-        <v>1265.638861031707</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="26">
@@ -6224,28 +6226,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K26" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L26" t="n">
-        <v>1747.436069000604</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="M26" t="n">
-        <v>2751.722170419663</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N26" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O26" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P26" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q26" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R26" t="n">
         <v>5115.135670291427</v>
@@ -6315,13 +6317,13 @@
         <v>102.3027134058285</v>
       </c>
       <c r="N27" t="n">
-        <v>1021.509065974867</v>
+        <v>730.647150085061</v>
       </c>
       <c r="O27" t="n">
-        <v>1910.990343986338</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P27" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q27" t="n">
         <v>1910.990343986338</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1064.78153311813</v>
+        <v>431.8276921262043</v>
       </c>
       <c r="C28" t="n">
-        <v>892.808969997046</v>
+        <v>431.8276921262043</v>
       </c>
       <c r="D28" t="n">
-        <v>850.1944999357522</v>
+        <v>268.510919252975</v>
       </c>
       <c r="E28" t="n">
-        <v>683.9862940886057</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F28" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G28" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H28" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I28" t="n">
         <v>102.3027134058285</v>
@@ -6406,28 +6408,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S28" t="n">
-        <v>2112.580693338092</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T28" t="n">
-        <v>1869.241345563992</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U28" t="n">
-        <v>1589.056897064296</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V28" t="n">
-        <v>1307.345429672325</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W28" t="n">
-        <v>1307.345429672325</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X28" t="n">
-        <v>1064.78153311813</v>
+        <v>848.3364291485279</v>
       </c>
       <c r="Y28" t="n">
-        <v>1064.78153311813</v>
+        <v>621.99366083827</v>
       </c>
     </row>
     <row r="29">
@@ -6461,28 +6463,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K29" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L29" t="n">
-        <v>2110.0395278175</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="M29" t="n">
-        <v>3114.325629236558</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N29" t="n">
-        <v>4090.576687723259</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O29" t="n">
-        <v>4935.721337874071</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P29" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q29" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R29" t="n">
         <v>5115.135670291427</v>
@@ -6552,16 +6554,16 @@
         <v>1158.289251381874</v>
       </c>
       <c r="N30" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O30" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P30" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q30" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R30" t="n">
         <v>1910.990343986338</v>
@@ -6595,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>741.8809303238178</v>
+        <v>609.4538236255814</v>
       </c>
       <c r="C31" t="n">
-        <v>741.8809303238178</v>
+        <v>437.4812605044974</v>
       </c>
       <c r="D31" t="n">
-        <v>578.5641574505885</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E31" t="n">
-        <v>412.355951603442</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F31" t="n">
-        <v>412.355951603442</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G31" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H31" t="n">
         <v>102.3027134058285</v>
@@ -6652,19 +6654,19 @@
         <v>1822.202732251165</v>
       </c>
       <c r="U31" t="n">
-        <v>1822.202732251165</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V31" t="n">
-        <v>1540.491264859194</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W31" t="n">
-        <v>1400.953563900336</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X31" t="n">
-        <v>1158.389667346141</v>
+        <v>835.7965919358394</v>
       </c>
       <c r="Y31" t="n">
-        <v>932.0468990358834</v>
+        <v>609.4538236255814</v>
       </c>
     </row>
     <row r="32">
@@ -6698,28 +6700,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>817.8110213813276</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="L32" t="n">
-        <v>1747.436069000604</v>
+        <v>1394.531219842001</v>
       </c>
       <c r="M32" t="n">
-        <v>2751.722170419663</v>
+        <v>2398.817321261059</v>
       </c>
       <c r="N32" t="n">
-        <v>3727.973228906364</v>
+        <v>3375.06837974776</v>
       </c>
       <c r="O32" t="n">
-        <v>4573.117879057176</v>
+        <v>4220.213029898572</v>
       </c>
       <c r="P32" t="n">
-        <v>5115.135670291427</v>
+        <v>4928.4923090565</v>
       </c>
       <c r="Q32" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R32" t="n">
         <v>5115.135670291427</v>
@@ -6783,13 +6785,13 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L33" t="n">
-        <v>939.1015214887346</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="M33" t="n">
-        <v>1021.509065974867</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N33" t="n">
-        <v>1021.509065974867</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O33" t="n">
         <v>1910.990343986338</v>
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1022.167063056836</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="C34" t="n">
-        <v>850.1944999357522</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="D34" t="n">
-        <v>850.1944999357522</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="E34" t="n">
-        <v>683.9862940886057</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F34" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G34" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H34" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I34" t="n">
         <v>102.3027134058285</v>
@@ -6883,25 +6885,25 @@
         <v>2235.67712750613</v>
       </c>
       <c r="S34" t="n">
-        <v>2235.67712750613</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T34" t="n">
-        <v>2235.67712750613</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U34" t="n">
-        <v>2235.67712750613</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V34" t="n">
-        <v>1953.965660114159</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W34" t="n">
-        <v>1679.113256286672</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X34" t="n">
-        <v>1436.549359732477</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y34" t="n">
-        <v>1210.206591422219</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D35" t="n">
         <v>1690.508147261616</v>
@@ -6923,49 +6925,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I35" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>464.906172222724</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K35" t="n">
         <v>1180.414480198223</v>
       </c>
       <c r="L35" t="n">
-        <v>2110.0395278175</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="M35" t="n">
-        <v>3114.325629236558</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N35" t="n">
-        <v>4090.576687723259</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O35" t="n">
-        <v>4935.721337874071</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P35" t="n">
-        <v>4997.579335409524</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q35" t="n">
-        <v>4997.579335409524</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U35" t="n">
         <v>4531.487895805612</v>
@@ -6977,7 +6979,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X35" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y35" t="n">
         <v>2960.549862354846</v>
@@ -7017,13 +7019,13 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K36" t="n">
-        <v>610.0460590406528</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L36" t="n">
-        <v>1446.844867123559</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M36" t="n">
-        <v>1446.844867123559</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N36" t="n">
         <v>1446.844867123559</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3918.135197142811</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="C37" t="n">
-        <v>3746.162634021727</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="D37" t="n">
-        <v>3582.845861148498</v>
+        <v>579.5737431045868</v>
       </c>
       <c r="E37" t="n">
-        <v>3416.637655301351</v>
+        <v>413.3655372574403</v>
       </c>
       <c r="F37" t="n">
-        <v>3244.775881075911</v>
+        <v>413.3655372574403</v>
       </c>
       <c r="G37" t="n">
-        <v>3078.518911370144</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H37" t="n">
-        <v>2934.722642878298</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I37" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>2992.213971102456</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K37" t="n">
-        <v>3218.741572308293</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L37" t="n">
-        <v>3573.430893602714</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M37" t="n">
-        <v>3964.616688572965</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N37" t="n">
-        <v>4342.108199449</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O37" t="n">
-        <v>4697.536328128764</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P37" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q37" t="n">
-        <v>5115.135670291426</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>5115.135670291426</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S37" t="n">
-        <v>5115.135670291426</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T37" t="n">
-        <v>5115.135670291426</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U37" t="n">
-        <v>5115.135670291426</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V37" t="n">
-        <v>4833.424202899455</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W37" t="n">
-        <v>4558.571799071968</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X37" t="n">
-        <v>4316.007902517773</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y37" t="n">
-        <v>4089.665134207515</v>
+        <v>742.8905159778161</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C38" t="n">
         <v>2113.800768076616</v>
@@ -7172,52 +7174,52 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K38" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M38" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N38" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O38" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P38" t="n">
-        <v>4573.117879057176</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q38" t="n">
-        <v>5029.203358561359</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U38" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V38" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W38" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X38" t="n">
         <v>3365.887132399956</v>
       </c>
       <c r="Y38" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>669.4262044372838</v>
+        <v>3873.571530742373</v>
       </c>
       <c r="C39" t="n">
-        <v>551.9203009547886</v>
+        <v>3756.065627259878</v>
       </c>
       <c r="D39" t="n">
-        <v>448.0803424700736</v>
+        <v>3652.225668775163</v>
       </c>
       <c r="E39" t="n">
-        <v>343.3784087430108</v>
+        <v>3547.523735048101</v>
       </c>
       <c r="F39" t="n">
-        <v>249.7325784259149</v>
+        <v>3453.877904731005</v>
       </c>
       <c r="G39" t="n">
-        <v>155.678806643519</v>
+        <v>3359.824132948609</v>
       </c>
       <c r="H39" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="I39" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="J39" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="K39" t="n">
-        <v>692.7876399741681</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="L39" t="n">
-        <v>692.7876399741681</v>
+        <v>4143.246847793825</v>
       </c>
       <c r="M39" t="n">
-        <v>692.7876399741681</v>
+        <v>4143.246847793825</v>
       </c>
       <c r="N39" t="n">
-        <v>692.7876399741681</v>
+        <v>4143.635082195253</v>
       </c>
       <c r="O39" t="n">
-        <v>692.7876399741681</v>
+        <v>5033.116360206724</v>
       </c>
       <c r="P39" t="n">
-        <v>1364.825557038856</v>
+        <v>5033.116360206724</v>
       </c>
       <c r="Q39" t="n">
-        <v>1828.971033901635</v>
+        <v>5033.116360206724</v>
       </c>
       <c r="R39" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S39" t="n">
-        <v>1829.666096547593</v>
+        <v>5033.811422852682</v>
       </c>
       <c r="T39" t="n">
-        <v>1687.786160845271</v>
+        <v>4891.93148715036</v>
       </c>
       <c r="U39" t="n">
-        <v>1503.017964764908</v>
+        <v>4707.163291069997</v>
       </c>
       <c r="V39" t="n">
-        <v>1298.044825904174</v>
+        <v>4502.190152209264</v>
       </c>
       <c r="W39" t="n">
-        <v>1101.523448737391</v>
+        <v>4305.668775042481</v>
       </c>
       <c r="X39" t="n">
-        <v>938.0461025040541</v>
+        <v>4142.191428809144</v>
       </c>
       <c r="Y39" t="n">
-        <v>798.3532138573465</v>
+        <v>4002.498540162436</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>578.5641574505885</v>
+        <v>4017.903765402536</v>
       </c>
       <c r="C40" t="n">
-        <v>578.5641574505885</v>
+        <v>3845.931202281452</v>
       </c>
       <c r="D40" t="n">
-        <v>578.5641574505885</v>
+        <v>3682.614429408222</v>
       </c>
       <c r="E40" t="n">
-        <v>412.355951603442</v>
+        <v>3516.406223561076</v>
       </c>
       <c r="F40" t="n">
-        <v>412.355951603442</v>
+        <v>3344.544449335636</v>
       </c>
       <c r="G40" t="n">
-        <v>246.0989818976742</v>
+        <v>3178.287479629868</v>
       </c>
       <c r="H40" t="n">
-        <v>102.3027134058285</v>
+        <v>3034.491211138023</v>
       </c>
       <c r="I40" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="J40" t="n">
-        <v>159.7940416299865</v>
+        <v>2992.213971102457</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3216428358237</v>
+        <v>3218.741572308294</v>
       </c>
       <c r="L40" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602715</v>
       </c>
       <c r="M40" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572966</v>
       </c>
       <c r="N40" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449001</v>
       </c>
       <c r="O40" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128765</v>
       </c>
       <c r="P40" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q40" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R40" t="n">
-        <v>2235.67712750613</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S40" t="n">
-        <v>2065.542080025265</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="T40" t="n">
-        <v>1822.202732251165</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="U40" t="n">
-        <v>1542.018283751469</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="V40" t="n">
-        <v>1260.306816359498</v>
+        <v>4833.424202899456</v>
       </c>
       <c r="W40" t="n">
-        <v>985.454412532011</v>
+        <v>4558.571799071969</v>
       </c>
       <c r="X40" t="n">
-        <v>742.8905159778161</v>
+        <v>4316.007902517774</v>
       </c>
       <c r="Y40" t="n">
-        <v>578.5641574505885</v>
+        <v>4089.665134207516</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2244.068882576098</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C41" t="n">
-        <v>1817.168152589398</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D41" t="n">
-        <v>1393.875531774398</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E41" t="n">
-        <v>967.8985919222556</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F41" t="n">
-        <v>542.7744101116558</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G41" t="n">
-        <v>138.4353477011044</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H41" t="n">
-        <v>72.48424976299954</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I41" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J41" t="n">
-        <v>72.48424976299954</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K41" t="n">
-        <v>787.9925577384986</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L41" t="n">
-        <v>787.9925577384986</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M41" t="n">
-        <v>1684.985148555618</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N41" t="n">
-        <v>2581.977739372737</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O41" t="n">
-        <v>3050.570673763891</v>
+        <v>4289.300056251597</v>
       </c>
       <c r="P41" t="n">
-        <v>3050.570673763891</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q41" t="n">
-        <v>3506.656153268074</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R41" t="n">
-        <v>3624.212488149977</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S41" t="n">
-        <v>3624.212488149977</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T41" t="n">
-        <v>3403.28691719461</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U41" t="n">
-        <v>3403.28691719461</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V41" t="n">
-        <v>3045.79750232086</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W41" t="n">
-        <v>2649.406152621207</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X41" t="n">
-        <v>2649.406152621207</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y41" t="n">
-        <v>2244.068882576098</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>639.6077407944548</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C42" t="n">
-        <v>522.1018373119596</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D42" t="n">
-        <v>418.2618788272446</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E42" t="n">
-        <v>313.5599451001818</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F42" t="n">
-        <v>219.9141147830859</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G42" t="n">
-        <v>125.86034300069</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H42" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I42" t="n">
-        <v>72.48424976299954</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J42" t="n">
-        <v>72.48424976299954</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K42" t="n">
-        <v>72.48424976299954</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L42" t="n">
-        <v>72.48424976299954</v>
+        <v>946.5481644506465</v>
       </c>
       <c r="M42" t="n">
-        <v>94.69801151491845</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="N42" t="n">
-        <v>991.6906023320378</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O42" t="n">
-        <v>1881.171880343509</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P42" t="n">
-        <v>1881.171880343509</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q42" t="n">
-        <v>1881.171880343509</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R42" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S42" t="n">
-        <v>1799.847632904764</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T42" t="n">
-        <v>1657.967697202442</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U42" t="n">
-        <v>1473.199501122079</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V42" t="n">
-        <v>1268.226362261345</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W42" t="n">
-        <v>1071.704985094562</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X42" t="n">
-        <v>908.2276388612252</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y42" t="n">
-        <v>768.5347502145175</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1046.429879896717</v>
+        <v>601.2341827829741</v>
       </c>
       <c r="C43" t="n">
-        <v>874.4573167756332</v>
+        <v>429.2616196618901</v>
       </c>
       <c r="D43" t="n">
-        <v>711.1405439024039</v>
+        <v>265.9448467886608</v>
       </c>
       <c r="E43" t="n">
-        <v>544.9323380552574</v>
+        <v>265.9448467886608</v>
       </c>
       <c r="F43" t="n">
-        <v>373.0705638298178</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="G43" t="n">
-        <v>206.81359412405</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H43" t="n">
-        <v>172.2528180227236</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I43" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J43" t="n">
-        <v>129.9755779871575</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K43" t="n">
-        <v>356.5031791929947</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L43" t="n">
-        <v>711.1925004874155</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M43" t="n">
-        <v>1102.378295457666</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N43" t="n">
-        <v>1479.869806333702</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O43" t="n">
-        <v>1835.297935013465</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P43" t="n">
-        <v>2125.897146935366</v>
+        <v>2155.71561057819</v>
       </c>
       <c r="Q43" t="n">
-        <v>2252.897277176128</v>
+        <v>2282.715740818951</v>
       </c>
       <c r="R43" t="n">
-        <v>2205.858663863301</v>
+        <v>2235.677127506125</v>
       </c>
       <c r="S43" t="n">
-        <v>2035.723616382436</v>
+        <v>2065.54208002526</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.723616382436</v>
+        <v>1822.202732251159</v>
       </c>
       <c r="U43" t="n">
-        <v>2035.723616382436</v>
+        <v>1542.018283751464</v>
       </c>
       <c r="V43" t="n">
-        <v>1754.012148990465</v>
+        <v>1260.306816359493</v>
       </c>
       <c r="W43" t="n">
-        <v>1479.159745162978</v>
+        <v>1260.306816359493</v>
       </c>
       <c r="X43" t="n">
-        <v>1236.595848608783</v>
+        <v>1017.742919805298</v>
       </c>
       <c r="Y43" t="n">
-        <v>1236.595848608783</v>
+        <v>791.4001514950397</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1154.145610048727</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C44" t="n">
-        <v>727.2448800620271</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D44" t="n">
-        <v>497.6084315735993</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E44" t="n">
-        <v>497.6084315735993</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F44" t="n">
-        <v>72.48424976299954</v>
+        <v>839.407025598875</v>
       </c>
       <c r="G44" t="n">
-        <v>72.48424976299954</v>
+        <v>435.0679631883236</v>
       </c>
       <c r="H44" t="n">
-        <v>72.48424976299954</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I44" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J44" t="n">
-        <v>72.48424976299954</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K44" t="n">
-        <v>787.9925577384986</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="L44" t="n">
-        <v>1684.985148555618</v>
+        <v>1394.531219842001</v>
       </c>
       <c r="M44" t="n">
-        <v>1684.985148555618</v>
+        <v>2398.817321261059</v>
       </c>
       <c r="N44" t="n">
-        <v>2581.977739372737</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O44" t="n">
-        <v>3427.122389523549</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P44" t="n">
-        <v>3506.656153268074</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q44" t="n">
-        <v>3506.656153268074</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R44" t="n">
-        <v>3624.212488149977</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S44" t="n">
-        <v>3624.212488149977</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T44" t="n">
-        <v>3403.28691719461</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U44" t="n">
-        <v>3144.932007791022</v>
+        <v>4531.487895805613</v>
       </c>
       <c r="V44" t="n">
-        <v>2787.442592917272</v>
+        <v>4173.998480931863</v>
       </c>
       <c r="W44" t="n">
-        <v>2391.051243217619</v>
+        <v>3777.60713123221</v>
       </c>
       <c r="X44" t="n">
-        <v>1979.331244385367</v>
+        <v>3365.887132399957</v>
       </c>
       <c r="Y44" t="n">
-        <v>1573.993974340257</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>639.6077407944548</v>
+        <v>3873.571530742373</v>
       </c>
       <c r="C45" t="n">
-        <v>522.1018373119596</v>
+        <v>3756.065627259878</v>
       </c>
       <c r="D45" t="n">
-        <v>418.2618788272446</v>
+        <v>3652.225668775163</v>
       </c>
       <c r="E45" t="n">
-        <v>313.5599451001818</v>
+        <v>3547.523735048101</v>
       </c>
       <c r="F45" t="n">
-        <v>219.9141147830859</v>
+        <v>3453.877904731005</v>
       </c>
       <c r="G45" t="n">
-        <v>125.86034300069</v>
+        <v>3359.824132948609</v>
       </c>
       <c r="H45" t="n">
-        <v>72.48424976299954</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="I45" t="n">
-        <v>79.93089272491137</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="J45" t="n">
-        <v>79.93089272491137</v>
+        <v>3578.14552899051</v>
       </c>
       <c r="K45" t="n">
-        <v>79.93089272491137</v>
+        <v>3578.14552899051</v>
       </c>
       <c r="L45" t="n">
-        <v>79.93089272491137</v>
+        <v>3578.14552899051</v>
       </c>
       <c r="M45" t="n">
-        <v>909.6712922473346</v>
+        <v>3578.14552899051</v>
       </c>
       <c r="N45" t="n">
-        <v>909.6712922473346</v>
+        <v>4667.46047546338</v>
       </c>
       <c r="O45" t="n">
-        <v>1799.152570258806</v>
+        <v>4667.46047546338</v>
       </c>
       <c r="P45" t="n">
-        <v>1799.152570258806</v>
+        <v>4667.46047546338</v>
       </c>
       <c r="Q45" t="n">
-        <v>1799.152570258806</v>
+        <v>5033.116360206724</v>
       </c>
       <c r="R45" t="n">
-        <v>1881.171880343509</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S45" t="n">
-        <v>1799.847632904764</v>
+        <v>5033.811422852682</v>
       </c>
       <c r="T45" t="n">
-        <v>1657.967697202442</v>
+        <v>4891.93148715036</v>
       </c>
       <c r="U45" t="n">
-        <v>1473.199501122079</v>
+        <v>4707.163291069997</v>
       </c>
       <c r="V45" t="n">
-        <v>1268.226362261345</v>
+        <v>4502.190152209264</v>
       </c>
       <c r="W45" t="n">
-        <v>1071.704985094562</v>
+        <v>4305.668775042481</v>
       </c>
       <c r="X45" t="n">
-        <v>908.2276388612252</v>
+        <v>4142.191428809144</v>
       </c>
       <c r="Y45" t="n">
-        <v>768.5347502145175</v>
+        <v>4002.498540162436</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>746.8828112932242</v>
+        <v>3918.135197142812</v>
       </c>
       <c r="C46" t="n">
-        <v>574.9102481721402</v>
+        <v>3746.162634021728</v>
       </c>
       <c r="D46" t="n">
-        <v>411.5934752989109</v>
+        <v>3582.845861148498</v>
       </c>
       <c r="E46" t="n">
-        <v>411.5934752989109</v>
+        <v>3416.637655301352</v>
       </c>
       <c r="F46" t="n">
-        <v>239.7317010734713</v>
+        <v>3244.775881075912</v>
       </c>
       <c r="G46" t="n">
-        <v>216.2805182548452</v>
+        <v>3078.518911370144</v>
       </c>
       <c r="H46" t="n">
-        <v>72.48424976299954</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="I46" t="n">
-        <v>72.48424976299954</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="J46" t="n">
-        <v>129.9755779871575</v>
+        <v>2992.213971102457</v>
       </c>
       <c r="K46" t="n">
-        <v>356.5031791929947</v>
+        <v>3218.741572308294</v>
       </c>
       <c r="L46" t="n">
-        <v>711.1925004874155</v>
+        <v>3573.430893602715</v>
       </c>
       <c r="M46" t="n">
-        <v>1102.378295457666</v>
+        <v>3964.616688572966</v>
       </c>
       <c r="N46" t="n">
-        <v>1479.869806333702</v>
+        <v>4342.108199449001</v>
       </c>
       <c r="O46" t="n">
-        <v>1835.297935013465</v>
+        <v>4697.536328128765</v>
       </c>
       <c r="P46" t="n">
-        <v>2125.897146935366</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q46" t="n">
-        <v>2252.897277176128</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R46" t="n">
-        <v>2205.858663863301</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S46" t="n">
-        <v>2205.858663863301</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="T46" t="n">
-        <v>1962.519316089201</v>
+        <v>4871.796322517327</v>
       </c>
       <c r="U46" t="n">
-        <v>1962.519316089201</v>
+        <v>4591.611874017632</v>
       </c>
       <c r="V46" t="n">
-        <v>1680.80784869723</v>
+        <v>4591.611874017632</v>
       </c>
       <c r="W46" t="n">
-        <v>1405.955444869743</v>
+        <v>4316.759470190144</v>
       </c>
       <c r="X46" t="n">
-        <v>1163.391548315548</v>
+        <v>4144.477965453069</v>
       </c>
       <c r="Y46" t="n">
-        <v>937.0487800052899</v>
+        <v>3918.135197142812</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7981,22 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K2" t="n">
-        <v>497.1645065551435</v>
+        <v>519.5412919487784</v>
       </c>
       <c r="L2" t="n">
-        <v>481.069527758196</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
-        <v>37.43126289943181</v>
+        <v>501.661421077483</v>
       </c>
       <c r="N2" t="n">
-        <v>37.27962283444602</v>
+        <v>521.056313988415</v>
       </c>
       <c r="O2" t="n">
-        <v>498.7908651163583</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
-        <v>498.9752675705655</v>
+        <v>521.3520529642003</v>
       </c>
       <c r="Q2" t="n">
         <v>36.12467460459804</v>
@@ -8055,7 +8057,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
         <v>22.39923383333334</v>
@@ -8064,19 +8066,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>23.09678051232798</v>
+        <v>506.873471666297</v>
       </c>
       <c r="N3" t="n">
-        <v>456.5786519614261</v>
+        <v>505.1197193675107</v>
       </c>
       <c r="O3" t="n">
-        <v>484.5717954825564</v>
+        <v>131.7781250670394</v>
       </c>
       <c r="P3" t="n">
-        <v>483.1707469651629</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
-        <v>484.1469440493127</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R3" t="n">
         <v>23.67291939414415</v>
@@ -8137,7 +8139,7 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K4" t="n">
-        <v>20.964654452712</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L4" t="n">
         <v>380.1908016072373</v>
@@ -8149,10 +8151,10 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O4" t="n">
-        <v>381.5174992961649</v>
+        <v>94.64032950872043</v>
       </c>
       <c r="P4" t="n">
-        <v>169.2509181278045</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q4" t="n">
         <v>152.9025226039384</v>
@@ -8216,28 +8218,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K5" t="n">
-        <v>360.4858157331555</v>
+        <v>108.8261593358512</v>
       </c>
       <c r="L5" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N5" t="n">
-        <v>498.6795285947802</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O5" t="n">
-        <v>498.7908651163583</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P5" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q5" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,28 +8294,28 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
-        <v>483.9149924745637</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M6" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>482.7429339738759</v>
+        <v>259.4889279983319</v>
       </c>
       <c r="O6" t="n">
-        <v>484.5717954825564</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q6" t="n">
-        <v>183.5407536736394</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R6" t="n">
         <v>23.67291939414415</v>
@@ -8374,7 +8376,7 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K7" t="n">
-        <v>249.7804132464869</v>
+        <v>249.7804132464876</v>
       </c>
       <c r="L7" t="n">
         <v>380.1908016072373</v>
@@ -8383,13 +8385,13 @@
         <v>417.7126065281028</v>
       </c>
       <c r="N7" t="n">
-        <v>320.1078160920833</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O7" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P7" t="n">
-        <v>22.38080065798648</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q7" t="n">
         <v>152.9025226039384</v>
@@ -8450,31 +8452,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>497.1645065551435</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M8" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N8" t="n">
-        <v>498.6795285947802</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
-        <v>498.7908651163583</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P8" t="n">
-        <v>37.5753618102313</v>
+        <v>452.5855512828693</v>
       </c>
       <c r="Q8" t="n">
-        <v>112.616039913105</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R8" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8526,31 +8528,31 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J9" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
-        <v>374.7870696168708</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>483.9149924745637</v>
+        <v>467.1209648647325</v>
       </c>
       <c r="M9" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>482.7429339738759</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P9" t="n">
-        <v>483.1707469651629</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
         <v>106.5207073584907</v>
@@ -8617,7 +8619,7 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M10" t="n">
-        <v>42.2324077072759</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N10" t="n">
         <v>402.0534574160406</v>
@@ -8690,25 +8692,25 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>944.3651644701174</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>943.4843849369263</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N11" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O11" t="n">
-        <v>867.1867003153757</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
-        <v>496.8170781441769</v>
+        <v>369.2860653765454</v>
       </c>
       <c r="R11" t="n">
         <v>153.7764225027789</v>
@@ -8763,19 +8765,19 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J12" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K12" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L12" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>639.9911039177803</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N12" t="n">
         <v>21.34302821354166</v>
@@ -8784,10 +8786,10 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>21.77084120482866</v>
+        <v>230.3933721714771</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R12" t="n">
         <v>106.5207073584907</v>
@@ -8924,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>109.7570945810669</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>758.5002654165255</v>
+        <v>702.6160445827093</v>
       </c>
       <c r="L14" t="n">
-        <v>944.3651644701174</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M14" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>943.3327448719406</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O14" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q14" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,22 +9005,22 @@
         <v>16.17238675</v>
       </c>
       <c r="J15" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K15" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L15" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>647.512965495469</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O15" t="n">
-        <v>23.17188972222222</v>
+        <v>153.3615438023236</v>
       </c>
       <c r="P15" t="n">
         <v>21.77084120482866</v>
@@ -9027,7 +9029,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R15" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9164,13 +9166,13 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
-        <v>360.2906876703342</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L17" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>1051.861668373228</v>
+        <v>653.6520906270367</v>
       </c>
       <c r="N17" t="n">
         <v>1023.391803124043</v>
@@ -9243,13 +9245,13 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K18" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L18" t="n">
         <v>867.7664080100944</v>
       </c>
       <c r="M18" t="n">
-        <v>1004.802661823039</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
         <v>21.34302821354166</v>
@@ -9258,7 +9260,7 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>21.77084120482866</v>
+        <v>407.0273017394389</v>
       </c>
       <c r="Q18" t="n">
         <v>22.7470382889785</v>
@@ -9398,13 +9400,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>395.6860795026527</v>
+        <v>221.0580860608543</v>
       </c>
       <c r="K20" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L20" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M20" t="n">
         <v>1051.861668373228</v>
@@ -9413,16 +9415,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O20" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
-        <v>355.5991224937308</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9474,25 +9476,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K21" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L21" t="n">
-        <v>354.5569311593796</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N21" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>921.6378271075471</v>
+        <v>693.1063741240905</v>
       </c>
       <c r="P21" t="n">
         <v>21.77084120482866</v>
@@ -9501,7 +9503,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R21" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,16 +9637,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>296.4732919192194</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L23" t="n">
-        <v>977.3272420480539</v>
+        <v>586.4197136125407</v>
       </c>
       <c r="M23" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N23" t="n">
         <v>1023.391803124043</v>
@@ -9717,28 +9719,28 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>574.2427960500296</v>
       </c>
       <c r="L24" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R24" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,16 +9874,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L26" t="n">
-        <v>977.3272420480539</v>
+        <v>878.1144544646206</v>
       </c>
       <c r="M26" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N26" t="n">
         <v>1023.391803124043</v>
@@ -9890,13 +9892,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9963,16 +9965,16 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>949.8342934347922</v>
+        <v>656.0343783945846</v>
       </c>
       <c r="O27" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R27" t="n">
         <v>23.67291939414415</v>
@@ -10109,13 +10111,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K29" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L29" t="n">
-        <v>977.3272420480539</v>
+        <v>229.9501690078907</v>
       </c>
       <c r="M29" t="n">
         <v>1051.861668373228</v>
@@ -10127,13 +10129,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>218.8019602116015</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10200,7 +10202,7 @@
         <v>1089.749849175</v>
       </c>
       <c r="N30" t="n">
-        <v>781.6471621574452</v>
+        <v>229.9655591801901</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
@@ -10209,10 +10211,10 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,10 +10348,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L32" t="n">
         <v>977.3272420480539</v>
@@ -10364,13 +10366,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>36.12467460459804</v>
+        <v>105.9095497086638</v>
       </c>
       <c r="R32" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10431,16 +10433,16 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L33" t="n">
-        <v>867.7664080100944</v>
+        <v>749.1541615704315</v>
       </c>
       <c r="M33" t="n">
-        <v>106.3367244377138</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O33" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
         <v>21.77084120482866</v>
@@ -10589,10 +10591,10 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L35" t="n">
-        <v>977.3272420480539</v>
+        <v>878.1144544646206</v>
       </c>
       <c r="M35" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N35" t="n">
         <v>1023.391803124043</v>
@@ -10601,10 +10603,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>100.0581876036184</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
         <v>153.7764225027789</v>
@@ -10665,16 +10667,16 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K36" t="n">
-        <v>535.2713001311357</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L36" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N36" t="n">
-        <v>21.34302821354166</v>
+        <v>312.8133471445368</v>
       </c>
       <c r="O36" t="n">
         <v>23.17188972222222</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
         <v>758.5002654165255</v>
@@ -10829,22 +10831,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N38" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O38" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
-        <v>121.8329647736524</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,25 +10904,25 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K39" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L39" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M39" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>21.34302821354166</v>
+        <v>21.73518417458029</v>
       </c>
       <c r="O39" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P39" t="n">
-        <v>700.5970200580485</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q39" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R39" t="n">
         <v>106.5207073584907</v>
@@ -11057,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>943.4843849369261</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N41" t="n">
-        <v>943.3327448719403</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
-        <v>510.717155710725</v>
+        <v>238.1216346371742</v>
       </c>
       <c r="P41" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R41" t="n">
         <v>153.7764225027789</v>
@@ -11133,7 +11135,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
         <v>20.61111433333334</v>
@@ -11142,25 +11144,25 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L42" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M42" t="n">
-        <v>45.53492369608445</v>
+        <v>445.5991972680949</v>
       </c>
       <c r="N42" t="n">
-        <v>927.3961502510359</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q42" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R42" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L44" t="n">
-        <v>944.3651644701172</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N44" t="n">
-        <v>943.3327448719403</v>
+        <v>751.2280472965118</v>
       </c>
       <c r="O44" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>117.9124969057111</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,10 +11372,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J45" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
         <v>22.39923383333334</v>
@@ -11382,19 +11384,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>861.2183961915433</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O45" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.7470382889785</v>
+        <v>392.0964168176092</v>
       </c>
       <c r="R45" t="n">
         <v>106.5207073584907</v>
@@ -23258,7 +23260,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23267,16 +23269,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>72.69004870209486</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23318,7 +23320,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23413,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1.169760948126836</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23492,16 +23494,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23510,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>155.5190230605834</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23653,22 +23655,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>75.19552205038863</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>213.9490619136297</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23896,19 +23898,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>94.83953384262509</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>95.21651689637629</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23953,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>113.0089626044161</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,19 +24183,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>7.5275949037256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24367,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>110.0981677402028</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>108.9108341743202</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24418,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>119.4952797838161</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24661,13 +24663,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>104.3914540390047</v>
       </c>
       <c r="Y28" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
         <v>98.77088257712678</v>
@@ -24892,16 +24894,16 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>133.9615558399431</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>91.97701519844301</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25072,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2.105175943215926</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>110.0981677402028</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,13 +25125,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25309,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>18.44967133088807</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25321,16 +25323,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>97.7713927796685</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25378,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="38">
@@ -25546,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>188.264309024945</v>
+        <v>117.2205539080147</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25567,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25615,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>61.39624568520003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25625,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25643,10 +25645,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>229.5981077819817</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25691,7 +25693,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25792,19 +25794,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>150.4957502411084</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>108.143137466614</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,22 +25839,22 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25868,22 +25870,22 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>191.7196106033063</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26029,13 +26031,13 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>141.3777290182703</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
         <v>168.4336970060565</v>
@@ -26077,16 +26079,16 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>69.57956789894868</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>584660.4850409776</v>
+        <v>586037.3761121563</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>584660.4850409776</v>
+        <v>590495.4473306532</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>584660.4850409776</v>
+        <v>590495.4473306532</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>481647.6658481159</v>
+        <v>605774.803290043</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>481647.6658481159</v>
+        <v>605774.803290043</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>605774.803290043</v>
+        <v>605774.8032900429</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>605774.8032900431</v>
+        <v>605774.803290043</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>605774.803290043</v>
+        <v>605774.8032900431</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>605774.8032900431</v>
+        <v>605774.803290043</v>
       </c>
     </row>
     <row r="12">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>481647.6658481159</v>
+        <v>605774.8032900429</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>481647.6658481158</v>
+        <v>605774.803290043</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>480515.2011092095</v>
+        <v>480515.2011092094</v>
       </c>
       <c r="C2" t="n">
         <v>480515.2011092093</v>
@@ -26320,13 +26322,13 @@
         <v>480515.2011092094</v>
       </c>
       <c r="E2" t="n">
-        <v>368683.8431932277</v>
+        <v>463675.082588394</v>
       </c>
       <c r="F2" t="n">
-        <v>368683.8431932277</v>
+        <v>463675.082588394</v>
       </c>
       <c r="G2" t="n">
-        <v>463675.0825883938</v>
+        <v>463675.0825883939</v>
       </c>
       <c r="H2" t="n">
         <v>463675.0825883939</v>
@@ -26335,13 +26337,13 @@
         <v>463675.0825883938</v>
       </c>
       <c r="J2" t="n">
-        <v>463675.0825883939</v>
+        <v>463675.0825883938</v>
       </c>
       <c r="K2" t="n">
-        <v>463675.0825883937</v>
+        <v>463675.0825883938</v>
       </c>
       <c r="L2" t="n">
-        <v>463675.0825883939</v>
+        <v>463675.0825883938</v>
       </c>
       <c r="M2" t="n">
         <v>463675.0825883938</v>
@@ -26350,10 +26352,10 @@
         <v>463675.0825883938</v>
       </c>
       <c r="O2" t="n">
-        <v>368683.8431932277</v>
+        <v>463675.0825883938</v>
       </c>
       <c r="P2" t="n">
-        <v>368683.8431932277</v>
+        <v>463675.0825883938</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>154625.7206181205</v>
+        <v>162124.6960695916</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>23406.83367361189</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>132763.668009602</v>
+        <v>215739.3565566405</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>102159.9200943098</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>120722.5169427569</v>
+        <v>126577.2685802891</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>18646.60035701953</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>110809.3601091334</v>
+        <v>180063.8714551677</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>207111.2789421974</v>
+        <v>203366.9722795533</v>
       </c>
       <c r="C4" t="n">
-        <v>207111.2789421974</v>
+        <v>191243.7287526203</v>
       </c>
       <c r="D4" t="n">
-        <v>207111.2789421974</v>
+        <v>191243.7287526203</v>
       </c>
       <c r="E4" t="n">
-        <v>68898.71414051215</v>
+        <v>86696.74064784774</v>
       </c>
       <c r="F4" t="n">
-        <v>68898.71414051217</v>
+        <v>86696.74064784765</v>
       </c>
       <c r="G4" t="n">
+        <v>86696.74064784763</v>
+      </c>
+      <c r="H4" t="n">
+        <v>86696.74064784771</v>
+      </c>
+      <c r="I4" t="n">
         <v>86696.74064784776</v>
-      </c>
-      <c r="H4" t="n">
-        <v>86696.74064784778</v>
-      </c>
-      <c r="I4" t="n">
-        <v>86696.74064784778</v>
       </c>
       <c r="J4" t="n">
         <v>86696.74064784776</v>
       </c>
       <c r="K4" t="n">
-        <v>86696.74064784776</v>
+        <v>86696.74064784778</v>
       </c>
       <c r="L4" t="n">
         <v>86696.74064784776</v>
       </c>
       <c r="M4" t="n">
+        <v>86696.74064784778</v>
+      </c>
+      <c r="N4" t="n">
         <v>86696.74064784776</v>
       </c>
-      <c r="N4" t="n">
-        <v>86696.74064784775</v>
-      </c>
       <c r="O4" t="n">
-        <v>68898.71414051214</v>
+        <v>86696.74064784771</v>
       </c>
       <c r="P4" t="n">
-        <v>68898.71414051214</v>
+        <v>86696.74064784771</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>61680.71427022832</v>
+        <v>63041.22282216131</v>
       </c>
       <c r="C5" t="n">
-        <v>61680.71427022832</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="D5" t="n">
-        <v>61680.71427022832</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>55088.02981987967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="F5" t="n">
-        <v>55088.02981987967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="G5" t="n">
         <v>77750.06218842969</v>
@@ -26500,16 +26502,16 @@
         <v>77750.06218842969</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="O5" t="n">
-        <v>55088.02981987965</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="P5" t="n">
-        <v>55088.02981987965</v>
+        <v>77750.06218842969</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>57097.48727866329</v>
+        <v>51982.30993790319</v>
       </c>
       <c r="C6" t="n">
-        <v>211723.2078967835</v>
+        <v>198418.3876455491</v>
       </c>
       <c r="D6" t="n">
-        <v>211723.2078967836</v>
+        <v>221825.2213191609</v>
       </c>
       <c r="E6" t="n">
-        <v>111933.4312232338</v>
+        <v>83488.92319547606</v>
       </c>
       <c r="F6" t="n">
-        <v>244697.0992328358</v>
+        <v>299228.2797521167</v>
       </c>
       <c r="G6" t="n">
-        <v>197068.3596578066</v>
+        <v>299228.2797521165</v>
       </c>
       <c r="H6" t="n">
         <v>299228.2797521165</v>
       </c>
       <c r="I6" t="n">
-        <v>299228.2797521163</v>
+        <v>299228.2797521164</v>
       </c>
       <c r="J6" t="n">
-        <v>178505.7628093595</v>
+        <v>172651.0111718273</v>
       </c>
       <c r="K6" t="n">
-        <v>299228.2797521162</v>
+        <v>280581.6793950968</v>
       </c>
       <c r="L6" t="n">
         <v>299228.2797521164</v>
       </c>
       <c r="M6" t="n">
-        <v>188418.919642983</v>
+        <v>119164.4082969486</v>
       </c>
       <c r="N6" t="n">
         <v>299228.2797521164</v>
       </c>
       <c r="O6" t="n">
-        <v>244697.0992328358</v>
+        <v>299228.2797521164</v>
       </c>
       <c r="P6" t="n">
-        <v>244697.0992328358</v>
+        <v>299228.2797521164</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.776691153969</v>
       </c>
       <c r="C4" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="D4" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>906.0531220374945</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="F4" t="n">
-        <v>906.0531220374945</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -26826,10 +26828,10 @@
         <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>906.0531220374943</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="P4" t="n">
-        <v>906.0531220374943</v>
+        <v>1278.783917572857</v>
       </c>
     </row>
   </sheetData>
@@ -27009,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.776691153969</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>72.45112196162512</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>444.6532162771603</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>372.7307955353623</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.776691153969</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>72.45112196162512</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>444.65321627716</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.776691153969</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>72.45112196162512</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>444.6532162771603</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>372.7307955353623</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27385,10 +27387,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>19.97603639072679</v>
+        <v>390.3743495457128</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27427,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27436,7 +27438,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27445,7 +27447,7 @@
         <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27546,13 +27548,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>88.80583568396091</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27582,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
         <v>168.4336970060565</v>
@@ -27591,19 +27593,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>173.5654753938863</v>
       </c>
       <c r="V4" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -27613,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>245.3945739651546</v>
+      </c>
+      <c r="C5" t="n">
         <v>400</v>
       </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>34.5479025439635</v>
@@ -27667,16 +27669,16 @@
         <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>83.57129426222446</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
         <v>400</v>
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>170.2528374898731</v>
@@ -27783,16 +27785,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>95.22308174664492</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>134.4062914546842</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27840,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27856,7 +27858,7 @@
         <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>400</v>
@@ -27868,7 +27870,7 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>69.17407713899908</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
         <v>34.5479025439635</v>
@@ -27901,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>226.4593363808663</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,13 +28013,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>36.74534024663697</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28026,10 +28028,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28071,13 +28073,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
-        <v>262.0291518893582</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="11">
@@ -34699,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>461.3999057603342</v>
+        <v>483.776691153969</v>
       </c>
       <c r="L2" t="n">
-        <v>442.7574853255731</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>464.2301581780512</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>483.776691153969</v>
       </c>
       <c r="O2" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>461.3999057603342</v>
+        <v>483.776691153969</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34775,7 +34777,7 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -34784,19 +34786,19 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>483.776691153969</v>
       </c>
       <c r="N3" t="n">
-        <v>435.2356237478844</v>
+        <v>483.776691153969</v>
       </c>
       <c r="O3" t="n">
-        <v>461.3999057603342</v>
+        <v>108.6062353448172</v>
       </c>
       <c r="P3" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>461.3999057603342</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,7 +34859,7 @@
         <v>58.07204871127072</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L4" t="n">
         <v>358.2720417115361</v>
@@ -34869,10 +34871,10 @@
         <v>381.3045564404402</v>
       </c>
       <c r="O4" t="n">
-        <v>359.0183117977405</v>
+        <v>72.14114201029598</v>
       </c>
       <c r="P4" t="n">
-        <v>146.870117469818</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q4" t="n">
         <v>128.2829598391535</v>
@@ -34936,28 +34938,28 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>324.7212149383462</v>
+        <v>73.06155854104185</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N5" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O5" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q5" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>461.3999057603342</v>
+        <v>238.1458997847902</v>
       </c>
       <c r="O6" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q6" t="n">
-        <v>160.7937153846609</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35096,7 @@
         <v>58.07204871127072</v>
       </c>
       <c r="K7" t="n">
-        <v>228.8157587937749</v>
+        <v>228.8157587937756</v>
       </c>
       <c r="L7" t="n">
         <v>358.2720417115361</v>
@@ -35103,13 +35105,13 @@
         <v>395.137166636617</v>
       </c>
       <c r="N7" t="n">
-        <v>299.3589151164829</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O7" t="n">
         <v>359.0183117977405</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q7" t="n">
         <v>128.2829598391535</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N8" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>415.010189472638</v>
       </c>
       <c r="Q8" t="n">
-        <v>76.49136530850697</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35246,31 +35248,31 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
-        <v>352.3878357835375</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>461.3999057603342</v>
+        <v>444.605878150503</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P9" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
         <v>82.84778796434657</v>
@@ -35337,7 +35339,7 @@
         <v>358.2720417115361</v>
       </c>
       <c r="M10" t="n">
-        <v>19.65696781579008</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N10" t="n">
         <v>381.3045564404402</v>
@@ -35410,25 +35412,25 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>906.0531220374945</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>906.0531220374945</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>829.7957409593515</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
-        <v>460.6924035395789</v>
+        <v>333.1613907719473</v>
       </c>
       <c r="R11" t="n">
         <v>118.7437726079824</v>
@@ -35483,19 +35485,19 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>616.8943234054523</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35504,10 +35506,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>208.6225309666485</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R12" t="n">
         <v>82.84778796434657</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>80.33713509548033</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>722.7356646217162</v>
+        <v>666.8514437878999</v>
       </c>
       <c r="L14" t="n">
-        <v>906.0531220374945</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>906.0531220374945</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O14" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,22 +35725,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L15" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>624.416184983141</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>130.1896540801013</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35747,7 +35749,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35811,7 +35813,7 @@
         <v>358.2720417115361</v>
       </c>
       <c r="M16" t="n">
-        <v>395.137166636617</v>
+        <v>395.1371666366115</v>
       </c>
       <c r="N16" t="n">
         <v>381.3045564404402</v>
@@ -35884,13 +35886,13 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
-        <v>324.5260868755249</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L17" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>1014.430405473796</v>
+        <v>616.220827727605</v>
       </c>
       <c r="N17" t="n">
         <v>986.1121802895968</v>
@@ -35963,13 +35965,13 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L18" t="n">
         <v>845.2513212958648</v>
       </c>
       <c r="M18" t="n">
-        <v>981.7058813107108</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -35978,7 +35980,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>385.2564605346102</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36060,7 +36062,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q19" t="n">
-        <v>128.2829598391535</v>
+        <v>128.2829598391493</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,13 +36120,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>366.2661200170662</v>
+        <v>191.6381265752677</v>
       </c>
       <c r="K20" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L20" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>1014.430405473796</v>
@@ -36133,16 +36135,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
-        <v>319.4744478891327</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>332.04184444515</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>898.4659373853249</v>
+        <v>669.9344844018683</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36221,7 +36223,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36355,16 +36357,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>267.0533324336329</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>939.015199615431</v>
+        <v>548.1076711799178</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N23" t="n">
         <v>986.1121802895968</v>
@@ -36437,28 +36439,28 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>551.8435622166962</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36592,16 +36594,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L26" t="n">
-        <v>939.015199615431</v>
+        <v>839.8024120319977</v>
       </c>
       <c r="M26" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>986.1121802895968</v>
@@ -36610,13 +36612,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36683,16 +36685,16 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>928.4912652212506</v>
+        <v>634.6913501810429</v>
       </c>
       <c r="O27" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36829,13 +36831,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L29" t="n">
-        <v>939.015199615431</v>
+        <v>191.6381265752678</v>
       </c>
       <c r="M29" t="n">
         <v>1014.430405473796</v>
@@ -36847,13 +36849,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>181.2265984013702</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36920,7 +36922,7 @@
         <v>1066.653068662672</v>
       </c>
       <c r="N30" t="n">
-        <v>760.3041339439036</v>
+        <v>208.6225309666485</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -36929,10 +36931,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37066,10 +37068,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>939.015199615431</v>
@@ -37084,13 +37086,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>69.78487510406572</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,16 +37153,16 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>845.2513212958648</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="M33" t="n">
-        <v>83.23994392538586</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O33" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37309,10 +37311,10 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L35" t="n">
-        <v>939.015199615431</v>
+        <v>839.8024120319977</v>
       </c>
       <c r="M35" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>986.1121802895968</v>
@@ -37321,10 +37323,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>62.48282579338712</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
         <v>118.7437726079824</v>
@@ -37385,16 +37387,16 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>512.8720662978023</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>291.4703189309951</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37540,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
         <v>722.7356646217162</v>
@@ -37549,22 +37551,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O38" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
-        <v>86.8003148788559</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,25 +37624,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>0.3921559610386215</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P39" t="n">
-        <v>678.8261788532199</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>82.84778796434657</v>
@@ -37777,28 +37779,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>906.0531220374943</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N41" t="n">
-        <v>906.0531220374943</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
-        <v>473.3261963547009</v>
+        <v>200.7306752811501</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>118.7437726079824</v>
@@ -37853,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -37862,25 +37864,25 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M42" t="n">
-        <v>22.43814318375647</v>
+        <v>422.5024167557669</v>
       </c>
       <c r="N42" t="n">
-        <v>906.0531220374943</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37953,7 +37955,7 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P43" t="n">
-        <v>293.5345574968697</v>
+        <v>293.5345574968641</v>
       </c>
       <c r="Q43" t="n">
         <v>128.2829598391535</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>906.0531220374943</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N44" t="n">
-        <v>906.0531220374943</v>
+        <v>713.9484244620658</v>
       </c>
       <c r="O44" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
-        <v>80.33713509547981</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -38102,19 +38104,19 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>838.1216156792153</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O45" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>369.3493785286307</v>
       </c>
       <c r="R45" t="n">
         <v>82.84778796434657</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_6_33.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_6_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1833422.137863187</v>
+        <v>1832725.476658097</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>612367.9462114766</v>
+        <v>612367.9462114758</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
         <v>22.63172268683286</v>
@@ -670,10 +670,10 @@
         <v>21.71717045362101</v>
       </c>
       <c r="F2" t="n">
-        <v>30.49859044678092</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2956717864458369</v>
+        <v>38.32351852110921</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -712,19 +712,19 @@
         <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
         <v>401.2838973446586</v>
@@ -834,7 +834,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>71.71896120054802</v>
       </c>
       <c r="I4" t="n">
         <v>98.77088257712678</v>
@@ -867,22 +867,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>103.8171286208124</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>170.2553066834602</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
         <v>22.63172268683286</v>
       </c>
       <c r="D5" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E5" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G5" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,13 +955,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>357.7090763209833</v>
       </c>
       <c r="X5" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
         <v>1.283897344658556</v>
@@ -1056,19 +1056,19 @@
         <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>101.0020307859385</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
         <v>142.3583058069271</v>
@@ -1104,10 +1104,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>106.4996628416748</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
         <v>277.3826040146988</v>
@@ -1119,7 +1119,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>224.0793406271554</v>
@@ -1132,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C8" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E8" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
         <v>20.87293999249374</v>
@@ -1186,19 +1186,19 @@
         <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>136.4856185553948</v>
       </c>
       <c r="X8" t="n">
-        <v>181.1434624630639</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y8" t="n">
         <v>401.2838973446586</v>
@@ -1293,19 +1293,19 @@
         <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>123.0673923170403</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>127.800783542038</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
         <v>240.905954296359</v>
@@ -1350,7 +1350,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
@@ -1359,7 +1359,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="11">
@@ -1381,16 +1381,16 @@
         <v>421.7171704536211</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924938</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>400.2956717864459</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>294.8896947407056</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
-        <v>34.54790254396359</v>
+        <v>34.54790254396446</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.3236211855911</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458135</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095519</v>
+        <v>255.7713603095521</v>
       </c>
       <c r="V11" t="n">
         <v>353.9145207250131</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>97.60112162899995</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>142.7759412758949</v>
       </c>
       <c r="T13" t="n">
         <v>240.905954296359</v>
@@ -1590,10 +1590,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>224.0793406271554</v>
@@ -1615,7 +1615,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>421.7171704536211</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
         <v>420.8729399924938</v>
@@ -1627,7 +1627,7 @@
         <v>294.8896947407056</v>
       </c>
       <c r="I14" t="n">
-        <v>34.54790254396359</v>
+        <v>34.54790254396354</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.3236211855911</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458133</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095519</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
         <v>353.9145207250131</v>
@@ -1672,7 +1672,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439303</v>
+        <v>407.6027988439306</v>
       </c>
       <c r="Y14" t="n">
         <v>401.2838973446586</v>
@@ -1770,7 +1770,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
         <v>164.546123788675</v>
@@ -1779,10 +1779,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>98.77088257712678</v>
@@ -1815,16 +1815,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>165.7104322459704</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>150.2244299057496</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
@@ -1855,7 +1855,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924938</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
         <v>400.2956717864458</v>
@@ -1864,7 +1864,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
-        <v>34.54790254396359</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>103.3236211855911</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T17" t="n">
-        <v>218.7163152458133</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U17" t="n">
         <v>255.771360309553</v>
       </c>
       <c r="V17" t="n">
-        <v>353.9145207250131</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
         <v>392.4274362026566</v>
@@ -2013,16 +2013,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>75.30362264056009</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2061,10 +2061,10 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>50.4351102718784</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>240.1382575886529</v>
@@ -2089,19 +2089,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>421.717170453621</v>
+        <v>421.717170453622</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924938</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H20" t="n">
-        <v>294.8896947407056</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
-        <v>34.54790254396359</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,10 +2134,10 @@
         <v>103.323621185591</v>
       </c>
       <c r="T20" t="n">
-        <v>218.7163152458133</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U20" t="n">
-        <v>255.7713603095519</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V20" t="n">
         <v>353.914520725013</v>
@@ -2149,7 +2149,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
-        <v>401.2838973446598</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="21">
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>75.25534642052892</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>55.7550892152995</v>
       </c>
       <c r="U22" t="n">
         <v>277.3826040146988</v>
@@ -2475,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>51.58543740429417</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2538,7 +2538,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>272.1038797892121</v>
+        <v>21.12949727656918</v>
       </c>
       <c r="X25" t="n">
         <v>240.1382575886529</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
         <v>161.683605144497</v>
@@ -2724,13 +2724,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>20.85946502758068</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2769,7 +2769,7 @@
         <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>278.8943527180514</v>
@@ -2778,7 +2778,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>135.7468035496482</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
         <v>224.0793406271554</v>
@@ -2955,7 +2955,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2964,13 +2964,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>147.2495085309107</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>168.4336970060565</v>
@@ -3012,10 +3012,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>148.1612423902099</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
         <v>224.0793406271554</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>51.58543740429417</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>33.7994086908846</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>277.3826040146988</v>
@@ -3252,7 +3252,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>224.0793406271554</v>
@@ -3283,7 +3283,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H35" t="n">
-        <v>294.8896947407055</v>
+        <v>294.8896947407063</v>
       </c>
       <c r="I35" t="n">
         <v>34.5479025439635</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>66.82300722904168</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>49.87597792716544</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>240.905954296359</v>
@@ -3492,7 +3492,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I38" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396433</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3660,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>71.04375511693026</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>164.546123788675</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>115.5060162752431</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3799,7 +3799,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
-        <v>353.9145207250137</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
         <v>392.4274362026566</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>170.2528374898731</v>
@@ -3909,7 +3909,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>19.64740624207679</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
-        <v>240.905954296359</v>
+        <v>147.9380083025149</v>
       </c>
       <c r="U43" t="n">
         <v>277.3826040146988</v>
@@ -3960,10 +3960,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>224.0793406271554</v>
@@ -3994,7 +3994,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407066</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
         <v>34.5479025439635</v>
@@ -4033,7 +4033,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7713603095512</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
         <v>353.914520725013</v>
@@ -4137,7 +4137,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>161.683605144497</v>
@@ -4146,16 +4146,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>139.1796793690141</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
         <v>240.905954296359</v>
@@ -4194,13 +4194,13 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>170.5586896897042</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
         <v>224.0793406271554</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>168.7534004685739</v>
+        <v>197.442487620469</v>
       </c>
       <c r="C2" t="n">
-        <v>145.8930745222781</v>
+        <v>174.5821616741732</v>
       </c>
       <c r="D2" t="n">
-        <v>126.6408577476824</v>
+        <v>155.3299448995776</v>
       </c>
       <c r="E2" t="n">
-        <v>104.7043219359441</v>
+        <v>133.3934090878392</v>
       </c>
       <c r="F2" t="n">
-        <v>73.89766491899363</v>
+        <v>112.3096313176435</v>
       </c>
       <c r="G2" t="n">
-        <v>73.59900654884632</v>
+        <v>73.59900654884628</v>
       </c>
       <c r="H2" t="n">
-        <v>73.59900654884632</v>
+        <v>73.59900654884628</v>
       </c>
       <c r="I2" t="n">
-        <v>38.70213529231752</v>
+        <v>38.70213529231749</v>
       </c>
       <c r="J2" t="n">
-        <v>38.70213529231752</v>
+        <v>38.70213529231749</v>
       </c>
       <c r="K2" t="n">
-        <v>517.6410595347469</v>
+        <v>38.70213529231749</v>
       </c>
       <c r="L2" t="n">
-        <v>517.6410595347469</v>
+        <v>38.70213529231749</v>
       </c>
       <c r="M2" t="n">
-        <v>977.2289161310175</v>
+        <v>403.587101744931</v>
       </c>
       <c r="N2" t="n">
-        <v>1456.167840373447</v>
+        <v>882.5260259873598</v>
       </c>
       <c r="O2" t="n">
-        <v>1456.167840373447</v>
+        <v>882.5260259873598</v>
       </c>
       <c r="P2" t="n">
-        <v>1935.106764615876</v>
+        <v>1361.464950229789</v>
       </c>
       <c r="Q2" t="n">
-        <v>1935.106764615876</v>
+        <v>1817.550429733972</v>
       </c>
       <c r="R2" t="n">
-        <v>1935.106764615876</v>
+        <v>1935.106764615874</v>
       </c>
       <c r="S2" t="n">
-        <v>1830.739470489016</v>
+        <v>1830.739470489015</v>
       </c>
       <c r="T2" t="n">
-        <v>1609.81389953365</v>
+        <v>1830.739470489015</v>
       </c>
       <c r="U2" t="n">
-        <v>1351.458990130062</v>
+        <v>1830.739470489015</v>
       </c>
       <c r="V2" t="n">
-        <v>993.9695752563114</v>
+        <v>1830.739470489015</v>
       </c>
       <c r="W2" t="n">
-        <v>597.5782255566583</v>
+        <v>1434.348120789361</v>
       </c>
       <c r="X2" t="n">
-        <v>589.8986307648096</v>
+        <v>1022.628121957109</v>
       </c>
       <c r="Y2" t="n">
-        <v>184.5613607196999</v>
+        <v>617.2908519119991</v>
       </c>
     </row>
     <row r="3">
@@ -4385,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>605.8256263237728</v>
+        <v>605.8256263237727</v>
       </c>
       <c r="C3" t="n">
-        <v>488.3197228412776</v>
+        <v>488.3197228412774</v>
       </c>
       <c r="D3" t="n">
-        <v>384.4797643565626</v>
+        <v>384.4797643565625</v>
       </c>
       <c r="E3" t="n">
-        <v>279.7778306294998</v>
+        <v>279.7778306294997</v>
       </c>
       <c r="F3" t="n">
         <v>186.1320003124039</v>
       </c>
       <c r="G3" t="n">
-        <v>92.07822853000793</v>
+        <v>92.07822853000789</v>
       </c>
       <c r="H3" t="n">
-        <v>38.70213529231752</v>
+        <v>38.70213529231749</v>
       </c>
       <c r="I3" t="n">
-        <v>46.14877825422936</v>
+        <v>38.70213529231749</v>
       </c>
       <c r="J3" t="n">
-        <v>317.8462675338204</v>
+        <v>38.70213529231749</v>
       </c>
       <c r="K3" t="n">
-        <v>317.8462675338204</v>
+        <v>343.347130440487</v>
       </c>
       <c r="L3" t="n">
-        <v>317.8462675338204</v>
+        <v>343.347130440487</v>
       </c>
       <c r="M3" t="n">
-        <v>796.7851917762498</v>
+        <v>343.347130440487</v>
       </c>
       <c r="N3" t="n">
-        <v>1275.724116018679</v>
+        <v>343.347130440487</v>
       </c>
       <c r="O3" t="n">
-        <v>1383.244289010048</v>
+        <v>822.2860546829158</v>
       </c>
       <c r="P3" t="n">
-        <v>1383.244289010048</v>
+        <v>1301.224978925345</v>
       </c>
       <c r="Q3" t="n">
-        <v>1847.389765872827</v>
+        <v>1765.370455788124</v>
       </c>
       <c r="R3" t="n">
         <v>1847.389765872827</v>
@@ -4451,10 +4451,10 @@
         <v>1037.92287062388</v>
       </c>
       <c r="X3" t="n">
-        <v>874.4455243905431</v>
+        <v>874.445524390543</v>
       </c>
       <c r="Y3" t="n">
-        <v>734.7526357438355</v>
+        <v>734.7526357438354</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1121.883257816554</v>
+        <v>1050.530384476777</v>
       </c>
       <c r="C4" t="n">
-        <v>949.9106946954704</v>
+        <v>878.5578213556935</v>
       </c>
       <c r="D4" t="n">
-        <v>786.5939218222411</v>
+        <v>715.2410484824642</v>
       </c>
       <c r="E4" t="n">
-        <v>620.3857159750946</v>
+        <v>549.0328426353177</v>
       </c>
       <c r="F4" t="n">
-        <v>448.523941749655</v>
+        <v>377.1710684098781</v>
       </c>
       <c r="G4" t="n">
-        <v>282.2669720438872</v>
+        <v>210.9140987041102</v>
       </c>
       <c r="H4" t="n">
-        <v>138.4707035520416</v>
+        <v>138.4707035520415</v>
       </c>
       <c r="I4" t="n">
-        <v>38.70213529231752</v>
+        <v>38.70213529231749</v>
       </c>
       <c r="J4" t="n">
-        <v>96.19346351647553</v>
+        <v>96.1934635164755</v>
       </c>
       <c r="K4" t="n">
         <v>322.7210647223127</v>
@@ -4497,43 +4497,43 @@
         <v>677.4103860167335</v>
       </c>
       <c r="M4" t="n">
-        <v>1068.596180986984</v>
+        <v>784.5877828974124</v>
       </c>
       <c r="N4" t="n">
-        <v>1446.08769186302</v>
+        <v>1162.079293773448</v>
       </c>
       <c r="O4" t="n">
-        <v>1517.507422453213</v>
+        <v>1517.507422453211</v>
       </c>
       <c r="P4" t="n">
-        <v>1808.106634375114</v>
+        <v>1808.106634375112</v>
       </c>
       <c r="Q4" t="n">
-        <v>1935.106764615876</v>
+        <v>1935.106764615874</v>
       </c>
       <c r="R4" t="n">
-        <v>1935.106764615876</v>
+        <v>1935.106764615874</v>
       </c>
       <c r="S4" t="n">
-        <v>1935.106764615876</v>
+        <v>1764.971717135009</v>
       </c>
       <c r="T4" t="n">
-        <v>1691.767416841776</v>
+        <v>1764.971717135009</v>
       </c>
       <c r="U4" t="n">
-        <v>1586.901630356107</v>
+        <v>1764.971717135009</v>
       </c>
       <c r="V4" t="n">
-        <v>1586.901630356107</v>
+        <v>1483.260249743038</v>
       </c>
       <c r="W4" t="n">
-        <v>1312.04922652862</v>
+        <v>1483.260249743038</v>
       </c>
       <c r="X4" t="n">
-        <v>1312.04922652862</v>
+        <v>1240.696353188843</v>
       </c>
       <c r="Y4" t="n">
-        <v>1312.04922652862</v>
+        <v>1240.696353188843</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2043.959734409802</v>
+        <v>568.8670150191533</v>
       </c>
       <c r="C5" t="n">
-        <v>2021.099408463506</v>
+        <v>546.0066890728575</v>
       </c>
       <c r="D5" t="n">
-        <v>1597.806787648507</v>
+        <v>526.7544722982618</v>
       </c>
       <c r="E5" t="n">
-        <v>1171.829847796364</v>
+        <v>100.7775324461193</v>
       </c>
       <c r="F5" t="n">
-        <v>746.7056659857641</v>
+        <v>79.69375467592363</v>
       </c>
       <c r="G5" t="n">
-        <v>342.3666035752127</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H5" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I5" t="n">
         <v>44.49822504924753</v>
@@ -4570,22 +4570,22 @@
         <v>44.49822504924753</v>
       </c>
       <c r="K5" t="n">
-        <v>116.829168004879</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L5" t="n">
-        <v>116.829168004879</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M5" t="n">
-        <v>667.4947029893171</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="N5" t="n">
-        <v>1218.160237973755</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="O5" t="n">
-        <v>1218.160237973755</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="P5" t="n">
-        <v>1768.825772958194</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q5" t="n">
         <v>2224.911252462377</v>
@@ -4594,25 +4594,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T5" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U5" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="V5" t="n">
-        <v>2224.911252462377</v>
+        <v>1763.054543461766</v>
       </c>
       <c r="W5" t="n">
-        <v>2224.911252462377</v>
+        <v>1401.732244147642</v>
       </c>
       <c r="X5" t="n">
-        <v>2217.231657670528</v>
+        <v>990.012245315389</v>
       </c>
       <c r="Y5" t="n">
-        <v>2215.934791665823</v>
+        <v>988.7153793106834</v>
       </c>
     </row>
     <row r="6">
@@ -4649,25 +4649,25 @@
         <v>51.94486801115937</v>
       </c>
       <c r="K6" t="n">
-        <v>51.94486801115937</v>
+        <v>119.1699405917395</v>
       </c>
       <c r="L6" t="n">
-        <v>602.6104029955975</v>
+        <v>119.1699405917395</v>
       </c>
       <c r="M6" t="n">
-        <v>602.6104029955975</v>
+        <v>669.8354755761777</v>
       </c>
       <c r="N6" t="n">
-        <v>838.3748437825398</v>
+        <v>1220.501010560616</v>
       </c>
       <c r="O6" t="n">
-        <v>838.3748437825398</v>
+        <v>1220.501010560616</v>
       </c>
       <c r="P6" t="n">
-        <v>1389.040378766978</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="Q6" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R6" t="n">
         <v>1853.185855629757</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>451.3798346740465</v>
+        <v>728.3148479467989</v>
       </c>
       <c r="C7" t="n">
-        <v>451.3798346740465</v>
+        <v>556.3422848257148</v>
       </c>
       <c r="D7" t="n">
-        <v>288.0630618008172</v>
+        <v>556.3422848257148</v>
       </c>
       <c r="E7" t="n">
-        <v>288.0630618008172</v>
+        <v>556.3422848257148</v>
       </c>
       <c r="F7" t="n">
-        <v>288.0630618008172</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G7" t="n">
         <v>288.0630618008172</v>
@@ -4728,49 +4728,49 @@
         <v>101.9895532734055</v>
       </c>
       <c r="K7" t="n">
-        <v>328.5171544792433</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L7" t="n">
-        <v>683.2064757736641</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M7" t="n">
-        <v>1074.392270743915</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N7" t="n">
-        <v>1451.883781619951</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O7" t="n">
-        <v>1807.311910299714</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P7" t="n">
-        <v>2097.911122221615</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q7" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="S7" t="n">
-        <v>2054.776204981511</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T7" t="n">
-        <v>1947.200787969719</v>
+        <v>1981.571904688276</v>
       </c>
       <c r="U7" t="n">
-        <v>1667.016339470023</v>
+        <v>1701.387456188581</v>
       </c>
       <c r="V7" t="n">
-        <v>1385.304872078052</v>
+        <v>1419.67598879661</v>
       </c>
       <c r="W7" t="n">
-        <v>1110.452468250565</v>
+        <v>1144.823584969123</v>
       </c>
       <c r="X7" t="n">
-        <v>867.88857169637</v>
+        <v>1144.823584969123</v>
       </c>
       <c r="Y7" t="n">
-        <v>641.5458033861121</v>
+        <v>918.4808166588646</v>
       </c>
     </row>
     <row r="8">
@@ -4780,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>533.9701437626245</v>
+        <v>938.0105478030285</v>
       </c>
       <c r="C8" t="n">
-        <v>511.1098178163287</v>
+        <v>511.1098178163286</v>
       </c>
       <c r="D8" t="n">
-        <v>87.81719700132894</v>
+        <v>491.857601041733</v>
       </c>
       <c r="E8" t="n">
         <v>65.88066118959054</v>
@@ -4804,22 +4804,22 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K8" t="n">
-        <v>44.49822504924753</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L8" t="n">
-        <v>595.1637600336857</v>
+        <v>1006.023847611597</v>
       </c>
       <c r="M8" t="n">
-        <v>1145.829295018124</v>
+        <v>1556.689382596036</v>
       </c>
       <c r="N8" t="n">
-        <v>1145.829295018124</v>
+        <v>1556.689382596036</v>
       </c>
       <c r="O8" t="n">
-        <v>1696.494830002562</v>
+        <v>1556.689382596036</v>
       </c>
       <c r="P8" t="n">
         <v>2107.354917580474</v>
@@ -4834,16 +4834,16 @@
         <v>2120.543958335517</v>
       </c>
       <c r="T8" t="n">
-        <v>1899.61838738015</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U8" t="n">
-        <v>1899.61838738015</v>
+        <v>1862.189048931929</v>
       </c>
       <c r="V8" t="n">
-        <v>1542.1289725064</v>
+        <v>1504.699634058179</v>
       </c>
       <c r="W8" t="n">
-        <v>1542.1289725064</v>
+        <v>1366.835372891113</v>
       </c>
       <c r="X8" t="n">
         <v>1359.155778099264</v>
@@ -4883,28 +4883,28 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J9" t="n">
-        <v>316.1957143288386</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K9" t="n">
-        <v>316.1957143288386</v>
+        <v>201.1892506764427</v>
       </c>
       <c r="L9" t="n">
-        <v>756.3555336978366</v>
+        <v>751.8547856608809</v>
       </c>
       <c r="M9" t="n">
-        <v>756.3555336978366</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="N9" t="n">
-        <v>756.3555336978366</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="O9" t="n">
-        <v>1307.021068682275</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P9" t="n">
-        <v>1307.021068682275</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q9" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R9" t="n">
         <v>1853.185855629757</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>946.7665737820055</v>
+        <v>268.5772905989112</v>
       </c>
       <c r="C10" t="n">
-        <v>774.7940106609215</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="D10" t="n">
-        <v>611.4772377876922</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="E10" t="n">
-        <v>482.385537240179</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="F10" t="n">
-        <v>310.5237630147394</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="G10" t="n">
         <v>144.2667933089716</v>
@@ -4989,25 +4989,25 @@
         <v>2177.872639149549</v>
       </c>
       <c r="S10" t="n">
-        <v>2177.872639149549</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T10" t="n">
-        <v>1934.533291375449</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U10" t="n">
-        <v>1654.348842875753</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V10" t="n">
-        <v>1654.348842875753</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="W10" t="n">
-        <v>1379.496439048266</v>
+        <v>927.6499241754298</v>
       </c>
       <c r="X10" t="n">
-        <v>1136.932542494071</v>
+        <v>685.0860276212348</v>
       </c>
       <c r="Y10" t="n">
-        <v>1136.932542494071</v>
+        <v>458.7432593109769</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C11" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D11" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E11" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F11" t="n">
-        <v>839.407025598874</v>
+        <v>839.4070255988748</v>
       </c>
       <c r="G11" t="n">
-        <v>435.0679631883227</v>
+        <v>435.0679631883235</v>
       </c>
       <c r="H11" t="n">
-        <v>137.1995846623574</v>
+        <v>137.1995846623583</v>
       </c>
       <c r="I11" t="n">
         <v>102.3027134058285</v>
@@ -5050,19 +5050,19 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M11" t="n">
-        <v>3114.325629236558</v>
+        <v>2585.460682495986</v>
       </c>
       <c r="N11" t="n">
-        <v>3114.325629236558</v>
+        <v>3561.711740982687</v>
       </c>
       <c r="O11" t="n">
-        <v>3959.47027938737</v>
+        <v>4406.8563911335</v>
       </c>
       <c r="P11" t="n">
-        <v>4667.749558545297</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q11" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R11" t="n">
         <v>5115.135670291427</v>
@@ -5086,7 +5086,7 @@
         <v>3365.887132399956</v>
       </c>
       <c r="Y11" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="12">
@@ -5117,25 +5117,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I12" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J12" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K12" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L12" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M12" t="n">
-        <v>1158.289251381874</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N12" t="n">
-        <v>1158.289251381874</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O12" t="n">
-        <v>1158.289251381874</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P12" t="n">
         <v>1364.825557038856</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>516.5477476675582</v>
+        <v>869.7150043171358</v>
       </c>
       <c r="C13" t="n">
-        <v>516.5477476675582</v>
+        <v>869.7150043171358</v>
       </c>
       <c r="D13" t="n">
-        <v>516.5477476675582</v>
+        <v>706.3982314439065</v>
       </c>
       <c r="E13" t="n">
-        <v>516.5477476675582</v>
+        <v>540.1900255967601</v>
       </c>
       <c r="F13" t="n">
-        <v>344.6859734421186</v>
+        <v>368.3282513713204</v>
       </c>
       <c r="G13" t="n">
-        <v>344.6859734421186</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H13" t="n">
-        <v>200.8897049502729</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I13" t="n">
         <v>102.3027134058285</v>
@@ -5226,25 +5226,25 @@
         <v>2235.67712750613</v>
       </c>
       <c r="S13" t="n">
-        <v>2065.542080025265</v>
+        <v>2091.459005005226</v>
       </c>
       <c r="T13" t="n">
-        <v>1822.202732251165</v>
+        <v>1848.119657231126</v>
       </c>
       <c r="U13" t="n">
-        <v>1542.018283751469</v>
+        <v>1567.935208731431</v>
       </c>
       <c r="V13" t="n">
-        <v>1260.306816359498</v>
+        <v>1286.223741339459</v>
       </c>
       <c r="W13" t="n">
-        <v>985.454412532011</v>
+        <v>1286.223741339459</v>
       </c>
       <c r="X13" t="n">
-        <v>742.8905159778161</v>
+        <v>1286.223741339459</v>
       </c>
       <c r="Y13" t="n">
-        <v>516.5477476675582</v>
+        <v>1059.880973029201</v>
       </c>
     </row>
     <row r="14">
@@ -5260,7 +5260,7 @@
         <v>2113.800768076616</v>
       </c>
       <c r="D14" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E14" t="n">
         <v>1264.531207409474</v>
@@ -5269,7 +5269,7 @@
         <v>839.407025598874</v>
       </c>
       <c r="G14" t="n">
-        <v>435.0679631883227</v>
+        <v>435.0679631883226</v>
       </c>
       <c r="H14" t="n">
         <v>137.1995846623574</v>
@@ -5281,25 +5281,25 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K14" t="n">
-        <v>1125.089101572745</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L14" t="n">
-        <v>1125.089101572745</v>
+        <v>1852.677416841655</v>
       </c>
       <c r="M14" t="n">
-        <v>2129.375202991803</v>
+        <v>2856.963518260713</v>
       </c>
       <c r="N14" t="n">
-        <v>3105.626261478504</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="O14" t="n">
-        <v>3950.770911629316</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P14" t="n">
-        <v>4659.050190787244</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q14" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R14" t="n">
         <v>5115.135670291427</v>
@@ -5363,13 +5363,13 @@
         <v>692.7876399741681</v>
       </c>
       <c r="L15" t="n">
-        <v>692.7876399741681</v>
+        <v>1529.586448057074</v>
       </c>
       <c r="M15" t="n">
-        <v>692.7876399741681</v>
+        <v>1529.586448057074</v>
       </c>
       <c r="N15" t="n">
-        <v>1782.102586447038</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O15" t="n">
         <v>1910.990343986338</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>684.0483191256287</v>
+        <v>869.8257932127802</v>
       </c>
       <c r="C16" t="n">
-        <v>512.0757560045447</v>
+        <v>697.8532300916962</v>
       </c>
       <c r="D16" t="n">
-        <v>512.0757560045447</v>
+        <v>534.5364572184669</v>
       </c>
       <c r="E16" t="n">
-        <v>345.8675501573982</v>
+        <v>368.3282513713204</v>
       </c>
       <c r="F16" t="n">
-        <v>345.8675501573982</v>
+        <v>368.3282513713204</v>
       </c>
       <c r="G16" t="n">
-        <v>345.8675501573982</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H16" t="n">
         <v>202.0712816655526</v>
@@ -5445,43 +5445,43 @@
         <v>741.0109641302445</v>
       </c>
       <c r="M16" t="n">
-        <v>1132.19675910049</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N16" t="n">
-        <v>1509.688269976526</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O16" t="n">
-        <v>1865.116398656289</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P16" t="n">
-        <v>2155.71561057819</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q16" t="n">
-        <v>2282.715740818951</v>
+        <v>2282.715740818954</v>
       </c>
       <c r="R16" t="n">
-        <v>2235.677127506125</v>
+        <v>2235.677127506127</v>
       </c>
       <c r="S16" t="n">
-        <v>2065.54208002526</v>
+        <v>2235.677127506127</v>
       </c>
       <c r="T16" t="n">
-        <v>1898.15780502933</v>
+        <v>2235.677127506127</v>
       </c>
       <c r="U16" t="n">
-        <v>1617.973356529634</v>
+        <v>1955.492679006432</v>
       </c>
       <c r="V16" t="n">
-        <v>1617.973356529634</v>
+        <v>1803.750830616786</v>
       </c>
       <c r="W16" t="n">
-        <v>1343.120952702147</v>
+        <v>1528.898426789299</v>
       </c>
       <c r="X16" t="n">
-        <v>1100.557056147952</v>
+        <v>1286.334530235104</v>
       </c>
       <c r="Y16" t="n">
-        <v>874.2142878376944</v>
+        <v>1059.991761924846</v>
       </c>
     </row>
     <row r="17">
@@ -5503,13 +5503,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988739</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883226</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1995846623574</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I17" t="n">
         <v>102.3027134058285</v>
@@ -5524,16 +5524,16 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>2720.098147267829</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N17" t="n">
-        <v>3696.34920575453</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O17" t="n">
-        <v>4541.493855905342</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="P17" t="n">
-        <v>4541.493855905342</v>
+        <v>4798.855966881186</v>
       </c>
       <c r="Q17" t="n">
         <v>4997.579335409525</v>
@@ -5591,31 +5591,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K18" t="n">
-        <v>692.7876399741681</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L18" t="n">
-        <v>1529.586448057074</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="M18" t="n">
-        <v>1529.586448057074</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="N18" t="n">
-        <v>1529.586448057074</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="O18" t="n">
-        <v>1529.586448057074</v>
+        <v>999.230634379212</v>
       </c>
       <c r="P18" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q18" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R18" t="n">
         <v>1910.990343986338</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>516.5477476675541</v>
+        <v>1022.167063056836</v>
       </c>
       <c r="C19" t="n">
-        <v>344.57518454647</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="D19" t="n">
-        <v>344.57518454647</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E19" t="n">
-        <v>178.3669786993236</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F19" t="n">
-        <v>102.3027134058285</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G19" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H19" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
@@ -5694,31 +5694,31 @@
         <v>2155.715610578195</v>
       </c>
       <c r="Q19" t="n">
-        <v>2282.715740818953</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2235.677127506126</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S19" t="n">
-        <v>2065.542080025261</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T19" t="n">
-        <v>1822.202732251161</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U19" t="n">
-        <v>1542.018283751465</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V19" t="n">
-        <v>1260.306816359494</v>
+        <v>1491.073727921289</v>
       </c>
       <c r="W19" t="n">
-        <v>985.4544125320069</v>
+        <v>1491.073727921289</v>
       </c>
       <c r="X19" t="n">
-        <v>742.890515977812</v>
+        <v>1248.509831367094</v>
       </c>
       <c r="Y19" t="n">
-        <v>516.5477476675541</v>
+        <v>1022.167063056836</v>
       </c>
     </row>
     <row r="20">
@@ -5728,52 +5728,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D20" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E20" t="n">
         <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.407025598874</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883227</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623574</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>292.0244587153436</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
-        <v>1007.532766690843</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>1007.532766690843</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>2011.818868109901</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="N20" t="n">
-        <v>2988.069926596602</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O20" t="n">
-        <v>3833.214576747414</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P20" t="n">
-        <v>4541.493855905342</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q20" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R20" t="n">
         <v>5115.135670291427</v>
@@ -5797,7 +5797,7 @@
         <v>3365.887132399956</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="21">
@@ -5828,31 +5828,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J21" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K21" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L21" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M21" t="n">
-        <v>1165.735894343786</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N21" t="n">
-        <v>1165.735894343786</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="O21" t="n">
-        <v>1828.971033901635</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="P21" t="n">
-        <v>1828.971033901635</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q21" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R21" t="n">
         <v>1910.990343986338</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>440.5322462326804</v>
+        <v>703.5688235070123</v>
       </c>
       <c r="C22" t="n">
-        <v>268.5596831115964</v>
+        <v>531.5962603859283</v>
       </c>
       <c r="D22" t="n">
-        <v>268.5596831115964</v>
+        <v>368.279487512699</v>
       </c>
       <c r="E22" t="n">
-        <v>268.5596831115964</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="F22" t="n">
-        <v>268.5596831115964</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="G22" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H22" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I22" t="n">
         <v>102.3027134058285</v>
@@ -5940,22 +5940,22 @@
         <v>2065.542080025265</v>
       </c>
       <c r="T22" t="n">
-        <v>1822.202732251165</v>
+        <v>2009.223808090619</v>
       </c>
       <c r="U22" t="n">
-        <v>1542.018283751469</v>
+        <v>1729.039359590923</v>
       </c>
       <c r="V22" t="n">
-        <v>1260.306816359498</v>
+        <v>1447.327892198952</v>
       </c>
       <c r="W22" t="n">
-        <v>985.454412532011</v>
+        <v>1172.475488371465</v>
       </c>
       <c r="X22" t="n">
-        <v>742.8905159778161</v>
+        <v>929.9115918172703</v>
       </c>
       <c r="Y22" t="n">
-        <v>516.5477476675582</v>
+        <v>703.5688235070123</v>
       </c>
     </row>
     <row r="23">
@@ -5992,16 +5992,16 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>464.9061722227241</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1007.532766690843</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2011.818868109901</v>
+        <v>2856.963518260713</v>
       </c>
       <c r="N23" t="n">
-        <v>2988.069926596602</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="O23" t="n">
         <v>3833.214576747414</v>
@@ -6065,31 +6065,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J24" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K24" t="n">
-        <v>648.6278400003578</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="L24" t="n">
-        <v>648.6278400003578</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="M24" t="n">
-        <v>648.6278400003578</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="N24" t="n">
-        <v>648.6278400003578</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="O24" t="n">
-        <v>648.6278400003578</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P24" t="n">
-        <v>1364.825557038856</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q24" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R24" t="n">
         <v>1910.990343986338</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>326.3817789554925</v>
+        <v>770.0572249530562</v>
       </c>
       <c r="C25" t="n">
-        <v>154.4092158344085</v>
+        <v>598.0846618319722</v>
       </c>
       <c r="D25" t="n">
-        <v>102.3027134058285</v>
+        <v>434.7678889587429</v>
       </c>
       <c r="E25" t="n">
-        <v>102.3027134058285</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="F25" t="n">
-        <v>102.3027134058285</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G25" t="n">
         <v>102.3027134058285</v>
@@ -6186,13 +6186,13 @@
         <v>1260.306816359498</v>
       </c>
       <c r="W25" t="n">
-        <v>985.454412532011</v>
+        <v>1238.963889817509</v>
       </c>
       <c r="X25" t="n">
-        <v>742.8905159778161</v>
+        <v>996.3999932633142</v>
       </c>
       <c r="Y25" t="n">
-        <v>516.5477476675582</v>
+        <v>770.0572249530562</v>
       </c>
     </row>
     <row r="26">
@@ -6226,28 +6226,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K26" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L26" t="n">
-        <v>2011.818868109901</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M26" t="n">
-        <v>2011.818868109901</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N26" t="n">
-        <v>2988.069926596602</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O26" t="n">
-        <v>3833.214576747414</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P26" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q26" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R26" t="n">
         <v>5115.135670291427</v>
@@ -6314,13 +6314,13 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M27" t="n">
-        <v>102.3027134058285</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N27" t="n">
-        <v>730.647150085061</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="O27" t="n">
-        <v>730.647150085061</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="P27" t="n">
         <v>1446.844867123559</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>431.8276921262043</v>
+        <v>796.7321961672538</v>
       </c>
       <c r="C28" t="n">
-        <v>431.8276921262043</v>
+        <v>624.7596330461698</v>
       </c>
       <c r="D28" t="n">
-        <v>268.510919252975</v>
+        <v>461.4428601729405</v>
       </c>
       <c r="E28" t="n">
-        <v>102.3027134058285</v>
+        <v>295.2346543257941</v>
       </c>
       <c r="F28" t="n">
-        <v>102.3027134058285</v>
+        <v>123.3728801003545</v>
       </c>
       <c r="G28" t="n">
-        <v>102.3027134058285</v>
+        <v>123.3728801003545</v>
       </c>
       <c r="H28" t="n">
         <v>102.3027134058285</v>
@@ -6417,19 +6417,19 @@
         <v>1822.202732251165</v>
       </c>
       <c r="U28" t="n">
-        <v>1542.018283751469</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="V28" t="n">
-        <v>1260.306816359498</v>
+        <v>1540.491264859194</v>
       </c>
       <c r="W28" t="n">
-        <v>985.454412532011</v>
+        <v>1265.638861031707</v>
       </c>
       <c r="X28" t="n">
-        <v>848.3364291485279</v>
+        <v>1023.074964477512</v>
       </c>
       <c r="Y28" t="n">
-        <v>621.99366083827</v>
+        <v>796.7321961672538</v>
       </c>
     </row>
     <row r="29">
@@ -6469,22 +6469,22 @@
         <v>817.8110213813276</v>
       </c>
       <c r="L29" t="n">
-        <v>1007.532766690843</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M29" t="n">
-        <v>2011.818868109901</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N29" t="n">
-        <v>2988.069926596602</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O29" t="n">
-        <v>3833.214576747414</v>
+        <v>4406.8563911335</v>
       </c>
       <c r="P29" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q29" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R29" t="n">
         <v>5115.135670291427</v>
@@ -6554,16 +6554,16 @@
         <v>1158.289251381874</v>
       </c>
       <c r="N30" t="n">
-        <v>1364.825557038856</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O30" t="n">
-        <v>1364.825557038856</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P30" t="n">
-        <v>1364.825557038856</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q30" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R30" t="n">
         <v>1910.990343986338</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>609.4538236255814</v>
+        <v>838.4387648078721</v>
       </c>
       <c r="C31" t="n">
-        <v>437.4812605044974</v>
+        <v>666.4662016867881</v>
       </c>
       <c r="D31" t="n">
-        <v>274.1644876312681</v>
+        <v>666.4662016867881</v>
       </c>
       <c r="E31" t="n">
-        <v>274.1644876312681</v>
+        <v>666.4662016867881</v>
       </c>
       <c r="F31" t="n">
-        <v>102.3027134058285</v>
+        <v>494.6044274613485</v>
       </c>
       <c r="G31" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H31" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I31" t="n">
         <v>102.3027134058285</v>
@@ -6645,28 +6645,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T31" t="n">
-        <v>1822.202732251165</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U31" t="n">
-        <v>1542.018283751469</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V31" t="n">
-        <v>1260.306816359498</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W31" t="n">
-        <v>985.454412532011</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="X31" t="n">
-        <v>835.7965919358394</v>
+        <v>1064.78153311813</v>
       </c>
       <c r="Y31" t="n">
-        <v>609.4538236255814</v>
+        <v>838.4387648078721</v>
       </c>
     </row>
     <row r="32">
@@ -6703,25 +6703,25 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>464.9061722227241</v>
+        <v>651.5495334576516</v>
       </c>
       <c r="L32" t="n">
-        <v>1394.531219842001</v>
+        <v>1581.174581076928</v>
       </c>
       <c r="M32" t="n">
-        <v>2398.817321261059</v>
+        <v>2585.460682495986</v>
       </c>
       <c r="N32" t="n">
-        <v>3375.06837974776</v>
+        <v>3561.711740982687</v>
       </c>
       <c r="O32" t="n">
-        <v>4220.213029898572</v>
+        <v>4406.8563911335</v>
       </c>
       <c r="P32" t="n">
-        <v>4928.4923090565</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q32" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R32" t="n">
         <v>5115.135670291427</v>
@@ -6785,7 +6785,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L33" t="n">
-        <v>821.6753975134684</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M33" t="n">
         <v>821.6753975134684</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>326.3817789554925</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C34" t="n">
-        <v>154.4092158344085</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D34" t="n">
-        <v>102.3027134058285</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E34" t="n">
-        <v>102.3027134058285</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F34" t="n">
-        <v>102.3027134058285</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G34" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H34" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I34" t="n">
         <v>102.3027134058285</v>
@@ -6882,28 +6882,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>2235.67712750613</v>
+        <v>2248.574923959477</v>
       </c>
       <c r="S34" t="n">
-        <v>2065.542080025265</v>
+        <v>2248.574923959477</v>
       </c>
       <c r="T34" t="n">
-        <v>1822.202732251165</v>
+        <v>2248.574923959477</v>
       </c>
       <c r="U34" t="n">
-        <v>1542.018283751469</v>
+        <v>1968.390475459782</v>
       </c>
       <c r="V34" t="n">
-        <v>1260.306816359498</v>
+        <v>1686.67900806781</v>
       </c>
       <c r="W34" t="n">
-        <v>985.454412532011</v>
+        <v>1411.826604240323</v>
       </c>
       <c r="X34" t="n">
-        <v>742.8905159778161</v>
+        <v>1411.826604240323</v>
       </c>
       <c r="Y34" t="n">
-        <v>516.5477476675582</v>
+        <v>1185.483835930065</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D35" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E35" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I35" t="n">
         <v>102.3027134058285</v>
@@ -6943,10 +6943,10 @@
         <v>1180.414480198223</v>
       </c>
       <c r="L35" t="n">
-        <v>2011.818868109901</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M35" t="n">
-        <v>2011.818868109901</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N35" t="n">
         <v>2988.069926596602</v>
@@ -6973,16 +6973,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V35" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W35" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X35" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y35" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="36">
@@ -7028,13 +7028,13 @@
         <v>1158.289251381874</v>
       </c>
       <c r="N36" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O36" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P36" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q36" t="n">
         <v>1910.990343986338</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>742.8905159778161</v>
+        <v>496.5168264363576</v>
       </c>
       <c r="C37" t="n">
-        <v>742.8905159778161</v>
+        <v>324.5442633152736</v>
       </c>
       <c r="D37" t="n">
-        <v>579.5737431045868</v>
+        <v>324.5442633152736</v>
       </c>
       <c r="E37" t="n">
-        <v>413.3655372574403</v>
+        <v>324.5442633152736</v>
       </c>
       <c r="F37" t="n">
-        <v>413.3655372574403</v>
+        <v>152.682489089834</v>
       </c>
       <c r="G37" t="n">
-        <v>345.8675501573982</v>
+        <v>152.682489089834</v>
       </c>
       <c r="H37" t="n">
-        <v>202.0712816655526</v>
+        <v>152.682489089834</v>
       </c>
       <c r="I37" t="n">
         <v>102.3027134058285</v>
@@ -7122,25 +7122,25 @@
         <v>2235.67712750613</v>
       </c>
       <c r="S37" t="n">
-        <v>2065.542080025265</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T37" t="n">
-        <v>1822.202732251165</v>
+        <v>1992.33777973203</v>
       </c>
       <c r="U37" t="n">
-        <v>1542.018283751469</v>
+        <v>1712.153331232334</v>
       </c>
       <c r="V37" t="n">
-        <v>1260.306816359498</v>
+        <v>1430.441863840363</v>
       </c>
       <c r="W37" t="n">
-        <v>985.454412532011</v>
+        <v>1155.589460012876</v>
       </c>
       <c r="X37" t="n">
-        <v>742.8905159778161</v>
+        <v>913.0255634586812</v>
       </c>
       <c r="Y37" t="n">
-        <v>742.8905159778161</v>
+        <v>686.6827951484232</v>
       </c>
     </row>
     <row r="38">
@@ -7153,22 +7153,22 @@
         <v>2540.701498063317</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D38" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E38" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623582</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
@@ -7180,22 +7180,22 @@
         <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>2110.0395278175</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M38" t="n">
-        <v>2110.0395278175</v>
+        <v>2129.375202991803</v>
       </c>
       <c r="N38" t="n">
-        <v>2988.069926596602</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O38" t="n">
-        <v>3833.214576747414</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P38" t="n">
-        <v>4541.493855905342</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q38" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R38" t="n">
         <v>5115.135670291427</v>
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C39" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D39" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E39" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F39" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G39" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H39" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I39" t="n">
-        <v>3306.448039710919</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J39" t="n">
-        <v>3306.448039710919</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K39" t="n">
-        <v>3306.448039710919</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L39" t="n">
-        <v>4143.246847793825</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M39" t="n">
-        <v>4143.246847793825</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N39" t="n">
-        <v>4143.635082195253</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O39" t="n">
-        <v>5033.116360206724</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P39" t="n">
-        <v>5033.116360206724</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q39" t="n">
-        <v>5033.116360206724</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R39" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S39" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T39" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U39" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V39" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W39" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X39" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y39" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4017.903765402536</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="C40" t="n">
-        <v>3845.931202281452</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="D40" t="n">
-        <v>3682.614429408222</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E40" t="n">
-        <v>3516.406223561076</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F40" t="n">
-        <v>3344.544449335636</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G40" t="n">
-        <v>3178.287479629868</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H40" t="n">
-        <v>3034.491211138023</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I40" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K40" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L40" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M40" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N40" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O40" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P40" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q40" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>5115.135670291427</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S40" t="n">
-        <v>5115.135670291427</v>
+        <v>2119.004383793763</v>
       </c>
       <c r="T40" t="n">
-        <v>5115.135670291427</v>
+        <v>1875.665036019663</v>
       </c>
       <c r="U40" t="n">
-        <v>5115.135670291427</v>
+        <v>1875.665036019663</v>
       </c>
       <c r="V40" t="n">
-        <v>4833.424202899456</v>
+        <v>1593.953568627692</v>
       </c>
       <c r="W40" t="n">
-        <v>4558.571799071969</v>
+        <v>1319.101164800205</v>
       </c>
       <c r="X40" t="n">
-        <v>4316.007902517774</v>
+        <v>1076.53726824601</v>
       </c>
       <c r="Y40" t="n">
-        <v>4089.665134207516</v>
+        <v>850.1944999357522</v>
       </c>
     </row>
     <row r="41">
@@ -7387,10 +7387,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C41" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D41" t="n">
         <v>1690.508147261616</v>
@@ -7399,13 +7399,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F41" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G41" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H41" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I41" t="n">
         <v>102.3027134058285</v>
@@ -7420,19 +7420,19 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M41" t="n">
-        <v>3114.325629236558</v>
+        <v>2129.375202991803</v>
       </c>
       <c r="N41" t="n">
-        <v>4090.576687723259</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O41" t="n">
-        <v>4289.300056251597</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P41" t="n">
-        <v>4997.579335409525</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q41" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R41" t="n">
         <v>5115.135670291427</v>
@@ -7487,31 +7487,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I42" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J42" t="n">
-        <v>109.7493563677404</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K42" t="n">
-        <v>109.7493563677404</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L42" t="n">
-        <v>946.5481644506465</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="M42" t="n">
-        <v>1364.825557038856</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="N42" t="n">
-        <v>1364.825557038856</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="O42" t="n">
-        <v>1364.825557038856</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="P42" t="n">
-        <v>1364.825557038856</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q42" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R42" t="n">
         <v>1910.990343986338</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>601.2341827829741</v>
+        <v>853.0186603771511</v>
       </c>
       <c r="C43" t="n">
-        <v>429.2616196618901</v>
+        <v>681.0460972560671</v>
       </c>
       <c r="D43" t="n">
-        <v>265.9448467886608</v>
+        <v>517.7293243828378</v>
       </c>
       <c r="E43" t="n">
-        <v>265.9448467886608</v>
+        <v>517.7293243828378</v>
       </c>
       <c r="F43" t="n">
-        <v>246.0989818976742</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="G43" t="n">
-        <v>246.0989818976742</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H43" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I43" t="n">
         <v>102.3027134058285</v>
@@ -7587,34 +7587,34 @@
         <v>1865.116398656294</v>
       </c>
       <c r="P43" t="n">
-        <v>2155.71561057819</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q43" t="n">
-        <v>2282.715740818951</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R43" t="n">
-        <v>2235.677127506125</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S43" t="n">
-        <v>2065.54208002526</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T43" t="n">
-        <v>1822.202732251159</v>
+        <v>1916.109748406563</v>
       </c>
       <c r="U43" t="n">
-        <v>1542.018283751464</v>
+        <v>1635.925299906867</v>
       </c>
       <c r="V43" t="n">
-        <v>1260.306816359493</v>
+        <v>1354.213832514896</v>
       </c>
       <c r="W43" t="n">
-        <v>1260.306816359493</v>
+        <v>1079.361428687409</v>
       </c>
       <c r="X43" t="n">
-        <v>1017.742919805298</v>
+        <v>1079.361428687409</v>
       </c>
       <c r="Y43" t="n">
-        <v>791.4001514950397</v>
+        <v>853.0186603771511</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C44" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D44" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E44" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F44" t="n">
-        <v>839.407025598875</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G44" t="n">
-        <v>435.0679631883236</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H44" t="n">
         <v>137.1995846623573</v>
@@ -7651,25 +7651,25 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K44" t="n">
-        <v>464.9061722227241</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L44" t="n">
-        <v>1394.531219842001</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M44" t="n">
-        <v>2398.817321261059</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N44" t="n">
-        <v>3105.626261478504</v>
+        <v>3696.34920575453</v>
       </c>
       <c r="O44" t="n">
-        <v>3950.770911629316</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="P44" t="n">
-        <v>4659.050190787244</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q44" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R44" t="n">
         <v>5115.135670291427</v>
@@ -7681,19 +7681,19 @@
         <v>4789.8428052092</v>
       </c>
       <c r="U44" t="n">
-        <v>4531.487895805613</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V44" t="n">
-        <v>4173.998480931863</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W44" t="n">
-        <v>3777.60713123221</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X44" t="n">
-        <v>3365.887132399957</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y44" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C45" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D45" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E45" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F45" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G45" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H45" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I45" t="n">
-        <v>3306.448039710919</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J45" t="n">
-        <v>3578.14552899051</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K45" t="n">
-        <v>3578.14552899051</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L45" t="n">
-        <v>3578.14552899051</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M45" t="n">
-        <v>3578.14552899051</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N45" t="n">
-        <v>4667.46047546338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O45" t="n">
-        <v>4667.46047546338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P45" t="n">
-        <v>4667.46047546338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q45" t="n">
-        <v>5033.116360206724</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R45" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S45" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T45" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U45" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V45" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W45" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X45" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y45" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3918.135197142812</v>
+        <v>838.4387648078721</v>
       </c>
       <c r="C46" t="n">
-        <v>3746.162634021728</v>
+        <v>838.4387648078721</v>
       </c>
       <c r="D46" t="n">
-        <v>3582.845861148498</v>
+        <v>675.1219919346428</v>
       </c>
       <c r="E46" t="n">
-        <v>3416.637655301352</v>
+        <v>508.9137860874963</v>
       </c>
       <c r="F46" t="n">
-        <v>3244.775881075912</v>
+        <v>508.9137860874963</v>
       </c>
       <c r="G46" t="n">
-        <v>3078.518911370144</v>
+        <v>342.6568163817284</v>
       </c>
       <c r="H46" t="n">
-        <v>2934.722642878299</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I46" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J46" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K46" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L46" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M46" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N46" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O46" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P46" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q46" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R46" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S46" t="n">
-        <v>5115.135670291427</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T46" t="n">
-        <v>4871.796322517327</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U46" t="n">
-        <v>4591.611874017632</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V46" t="n">
-        <v>4591.611874017632</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W46" t="n">
-        <v>4316.759470190144</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="X46" t="n">
-        <v>4144.477965453069</v>
+        <v>1064.78153311813</v>
       </c>
       <c r="Y46" t="n">
-        <v>3918.135197142812</v>
+        <v>838.4387648078721</v>
       </c>
     </row>
   </sheetData>
@@ -7981,28 +7981,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K2" t="n">
-        <v>519.5412919487784</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L2" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
-        <v>501.661421077483</v>
+        <v>406.0019360838899</v>
       </c>
       <c r="N2" t="n">
-        <v>521.056313988415</v>
+        <v>521.0563139884146</v>
       </c>
       <c r="O2" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
-        <v>521.3520529642003</v>
+        <v>521.3520529641999</v>
       </c>
       <c r="Q2" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8054,34 +8054,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J3" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
-        <v>22.39923383333334</v>
+        <v>330.1214511547166</v>
       </c>
       <c r="L3" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>506.873471666297</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
-        <v>505.1197193675107</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>131.7781250670394</v>
+        <v>506.9485808761908</v>
       </c>
       <c r="P3" t="n">
-        <v>21.77084120482866</v>
+        <v>505.5475323587972</v>
       </c>
       <c r="Q3" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R3" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8145,13 +8145,13 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M4" t="n">
-        <v>417.7126065281028</v>
+        <v>130.8354367406564</v>
       </c>
       <c r="N4" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O4" t="n">
-        <v>94.64032950872043</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P4" t="n">
         <v>315.9153581548562</v>
@@ -8218,25 +8218,25 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K5" t="n">
-        <v>108.8261593358512</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L5" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
-        <v>593.6590760150259</v>
+        <v>571.1852249800525</v>
       </c>
       <c r="N5" t="n">
         <v>593.5074359500402</v>
       </c>
       <c r="O5" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P5" t="n">
-        <v>593.8031749258255</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q5" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R5" t="n">
         <v>35.03264989479647</v>
@@ -8297,16 +8297,16 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
-        <v>22.39923383333334</v>
+        <v>90.30334755109108</v>
       </c>
       <c r="L6" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
-        <v>23.09678051232798</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N6" t="n">
-        <v>259.4889279983319</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O6" t="n">
         <v>23.17188972222222</v>
@@ -8315,10 +8315,10 @@
         <v>577.9986543204228</v>
       </c>
       <c r="Q6" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R6" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8376,7 +8376,7 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K7" t="n">
-        <v>249.7804132464876</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L7" t="n">
         <v>380.1908016072373</v>
@@ -8452,13 +8452,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L8" t="n">
-        <v>594.539855548217</v>
+        <v>87.05611188819479</v>
       </c>
       <c r="M8" t="n">
         <v>593.6590760150259</v>
@@ -8467,10 +8467,10 @@
         <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
-        <v>593.6187724716183</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P8" t="n">
-        <v>452.5855512828693</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q8" t="n">
         <v>36.12467460459804</v>
@@ -8531,31 +8531,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J9" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
-        <v>22.39923383333334</v>
+        <v>180.6729970931265</v>
       </c>
       <c r="L9" t="n">
-        <v>467.1209648647325</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M9" t="n">
-        <v>23.09678051232798</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N9" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O9" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q9" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R9" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8698,10 +8698,10 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>1051.861668373228</v>
+        <v>517.6546514635598</v>
       </c>
       <c r="N11" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O11" t="n">
         <v>891.0724241548241</v>
@@ -8710,10 +8710,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
-        <v>369.2860653765454</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R11" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,19 +8765,19 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L12" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
         <v>21.34302821354166</v>
@@ -8786,7 +8786,7 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>230.3933721714771</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q12" t="n">
         <v>491.5808533018869</v>
@@ -8929,10 +8929,10 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>702.6160445827093</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>38.31204243262292</v>
+        <v>717.3655137896245</v>
       </c>
       <c r="M14" t="n">
         <v>1051.861668373228</v>
@@ -8941,7 +8941,7 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O14" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P14" t="n">
         <v>753.0089771212694</v>
@@ -8950,7 +8950,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9011,16 +9011,16 @@
         <v>618.848654609434</v>
       </c>
       <c r="L15" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M15" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>1121.661155963915</v>
+        <v>406.5994887481519</v>
       </c>
       <c r="O15" t="n">
-        <v>153.3615438023236</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
         <v>21.77084120482866</v>
@@ -9172,19 +9172,19 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>653.6520906270367</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N17" t="n">
         <v>1023.391803124043</v>
       </c>
       <c r="O17" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P17" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q17" t="n">
-        <v>496.8170781441769</v>
+        <v>236.8553498857486</v>
       </c>
       <c r="R17" t="n">
         <v>153.7764225027789</v>
@@ -9239,16 +9239,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K18" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L18" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
         <v>23.09678051232798</v>
@@ -9257,16 +9257,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P18" t="n">
-        <v>407.0273017394389</v>
+        <v>391.0586418711355</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R18" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,19 +9400,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>221.0580860608543</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L20" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>1051.861668373228</v>
+        <v>1043.074428213578</v>
       </c>
       <c r="N20" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O20" t="n">
         <v>891.0724241548241</v>
@@ -9424,7 +9424,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,7 +9476,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J21" t="n">
         <v>20.61111433333334</v>
@@ -9491,19 +9491,19 @@
         <v>1089.749849175</v>
       </c>
       <c r="N21" t="n">
-        <v>21.34302821354166</v>
+        <v>312.8133471445368</v>
       </c>
       <c r="O21" t="n">
-        <v>693.1063741240905</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R21" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9640,19 +9640,19 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L23" t="n">
-        <v>586.4197136125407</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>791.8999401147988</v>
       </c>
       <c r="N23" t="n">
         <v>1023.391803124043</v>
       </c>
       <c r="O23" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P23" t="n">
         <v>753.0089771212694</v>
@@ -9713,16 +9713,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K24" t="n">
-        <v>574.2427960500296</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L24" t="n">
-        <v>22.51508671422956</v>
+        <v>522.0689695543915</v>
       </c>
       <c r="M24" t="n">
         <v>23.09678051232798</v>
@@ -9737,10 +9737,10 @@
         <v>745.2028786174529</v>
       </c>
       <c r="Q24" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R24" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,16 +9874,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K26" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L26" t="n">
-        <v>878.1144544646206</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M26" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N26" t="n">
         <v>1023.391803124043</v>
@@ -9892,13 +9892,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q26" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R26" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9962,16 +9962,16 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N27" t="n">
-        <v>656.0343783945846</v>
+        <v>312.8133471445368</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q27" t="n">
         <v>491.5808533018869</v>
@@ -10117,7 +10117,7 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L29" t="n">
-        <v>229.9501690078907</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M29" t="n">
         <v>1051.861668373228</v>
@@ -10126,16 +10126,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O29" t="n">
-        <v>891.0724241548241</v>
+        <v>723.1315272622221</v>
       </c>
       <c r="P29" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R29" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10202,7 +10202,7 @@
         <v>1089.749849175</v>
       </c>
       <c r="N30" t="n">
-        <v>229.9655591801901</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
@@ -10211,10 +10211,10 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q30" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R30" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10351,7 +10351,7 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
-        <v>35.76460079480934</v>
+        <v>224.2932485068573</v>
       </c>
       <c r="L32" t="n">
         <v>977.3272420480539</v>
@@ -10369,10 +10369,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>105.9095497086638</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R32" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10433,10 +10433,10 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L33" t="n">
-        <v>749.1541615704315</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>23.09678051232798</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N33" t="n">
         <v>1121.661155963915</v>
@@ -10591,13 +10591,13 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L35" t="n">
-        <v>878.1144544646206</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N35" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O35" t="n">
         <v>891.0724241548241</v>
@@ -10676,7 +10676,7 @@
         <v>1089.749849175</v>
       </c>
       <c r="N36" t="n">
-        <v>312.8133471445368</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O36" t="n">
         <v>23.17188972222222</v>
@@ -10685,7 +10685,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q36" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R36" t="n">
         <v>23.67291939414415</v>
@@ -10828,13 +10828,13 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M38" t="n">
-        <v>37.43126289943181</v>
+        <v>995.9774475394116</v>
       </c>
       <c r="N38" t="n">
-        <v>924.1790155406098</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O38" t="n">
         <v>891.0724241548241</v>
@@ -10846,7 +10846,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10898,31 +10898,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L39" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>21.73518417458029</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R39" t="n">
         <v>106.5207073584907</v>
@@ -11068,22 +11068,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>1051.861668373228</v>
+        <v>56.96224792398087</v>
       </c>
       <c r="N41" t="n">
         <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
-        <v>238.1216346371742</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11135,19 +11135,19 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J42" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L42" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>445.5991972680949</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
         <v>21.34302821354166</v>
@@ -11156,13 +11156,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>21.77084120482866</v>
+        <v>509.0028996591719</v>
       </c>
       <c r="Q42" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R42" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11299,7 +11299,7 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
         <v>977.3272420480539</v>
@@ -11308,19 +11308,19 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N44" t="n">
-        <v>751.2280472965118</v>
+        <v>625.182225377852</v>
       </c>
       <c r="O44" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q44" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11372,13 +11372,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L45" t="n">
         <v>22.51508671422956</v>
@@ -11387,16 +11387,16 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q45" t="n">
-        <v>392.0964168176092</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
         <v>106.5207073584907</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>1.169760948126836</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>25.65775573016157</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23478,10 +23478,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23658,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23667,10 +23667,10 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23703,16 +23703,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>75.19552205038863</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>128.6699228123018</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23901,16 +23901,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>94.83953384262509</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23949,10 +23949,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>228.459242446173</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>113.0089626044161</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,7 +24180,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>185.1508650810595</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24363,22 +24363,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>110.0981677402028</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>142.3583058069271</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>250.9743825126429</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24612,13 +24612,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>121.4988407793465</v>
       </c>
       <c r="I28" t="n">
         <v>98.77088257712678</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>104.3914540390047</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
         <v>164.546123788675</v>
@@ -24852,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>17.34489147779948</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24900,10 +24900,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
-        <v>91.97701519844301</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>110.0981677402028</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>12.76881848881398</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>97.7713927796685</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>48.89490464996135</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25548,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>117.2205539080147</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>52.92768073081335</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>277.3826040146988</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25797,7 +25797,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>150.4957502411084</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>164.5944000087102</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,7 +25839,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>92.9679459938441</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25848,10 +25848,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26034,16 +26034,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>3.178626437913067</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26082,13 +26082,13 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>69.57956789894868</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>605774.803290043</v>
+        <v>605774.8032900431</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>605774.8032900429</v>
+        <v>605774.803290043</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>605774.8032900431</v>
+        <v>605774.803290043</v>
       </c>
     </row>
     <row r="11">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>605774.8032900429</v>
+        <v>605774.803290043</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>605774.803290043</v>
+        <v>605774.8032900431</v>
       </c>
     </row>
   </sheetData>
@@ -26316,22 +26316,22 @@
         <v>480515.2011092094</v>
       </c>
       <c r="C2" t="n">
-        <v>480515.2011092093</v>
+        <v>480515.2011092094</v>
       </c>
       <c r="D2" t="n">
-        <v>480515.2011092094</v>
+        <v>480515.2011092096</v>
       </c>
       <c r="E2" t="n">
-        <v>463675.082588394</v>
+        <v>463675.0825883941</v>
       </c>
       <c r="F2" t="n">
-        <v>463675.082588394</v>
+        <v>463675.0825883939</v>
       </c>
       <c r="G2" t="n">
         <v>463675.0825883939</v>
       </c>
       <c r="H2" t="n">
-        <v>463675.0825883939</v>
+        <v>463675.0825883938</v>
       </c>
       <c r="I2" t="n">
         <v>463675.0825883938</v>
@@ -26343,7 +26343,7 @@
         <v>463675.0825883938</v>
       </c>
       <c r="L2" t="n">
-        <v>463675.0825883938</v>
+        <v>463675.0825883937</v>
       </c>
       <c r="M2" t="n">
         <v>463675.0825883938</v>
@@ -26352,7 +26352,7 @@
         <v>463675.0825883938</v>
       </c>
       <c r="O2" t="n">
-        <v>463675.0825883938</v>
+        <v>463675.0825883937</v>
       </c>
       <c r="P2" t="n">
         <v>463675.0825883938</v>
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>162124.6960695916</v>
+        <v>162124.6960695914</v>
       </c>
       <c r="C3" t="n">
-        <v>23406.83367361189</v>
+        <v>23406.83367361204</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>215739.3565566405</v>
+        <v>215739.3565566406</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>126577.2685802891</v>
+        <v>126577.2685802889</v>
       </c>
       <c r="K3" t="n">
-        <v>18646.60035701953</v>
+        <v>18646.60035701965</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2.397265017402108e-11</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>203366.9722795533</v>
+        <v>203366.9722795534</v>
       </c>
       <c r="C4" t="n">
         <v>191243.7287526203</v>
@@ -26426,16 +26426,16 @@
         <v>191243.7287526203</v>
       </c>
       <c r="E4" t="n">
+        <v>86696.74064784771</v>
+      </c>
+      <c r="F4" t="n">
+        <v>86696.74064784771</v>
+      </c>
+      <c r="G4" t="n">
         <v>86696.74064784774</v>
       </c>
-      <c r="F4" t="n">
-        <v>86696.74064784765</v>
-      </c>
-      <c r="G4" t="n">
-        <v>86696.74064784763</v>
-      </c>
       <c r="H4" t="n">
-        <v>86696.74064784771</v>
+        <v>86696.74064784772</v>
       </c>
       <c r="I4" t="n">
         <v>86696.74064784776</v>
@@ -26444,22 +26444,22 @@
         <v>86696.74064784776</v>
       </c>
       <c r="K4" t="n">
-        <v>86696.74064784778</v>
+        <v>86696.74064784776</v>
       </c>
       <c r="L4" t="n">
         <v>86696.74064784776</v>
       </c>
       <c r="M4" t="n">
-        <v>86696.74064784778</v>
+        <v>86696.74064784774</v>
       </c>
       <c r="N4" t="n">
+        <v>86696.74064784774</v>
+      </c>
+      <c r="O4" t="n">
         <v>86696.74064784776</v>
       </c>
-      <c r="O4" t="n">
-        <v>86696.74064784771</v>
-      </c>
       <c r="P4" t="n">
-        <v>86696.74064784771</v>
+        <v>86696.74064784776</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63041.22282216131</v>
+        <v>63041.22282216129</v>
       </c>
       <c r="C5" t="n">
         <v>67446.25103742813</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>51982.30993790319</v>
+        <v>51982.30993790335</v>
       </c>
       <c r="C6" t="n">
-        <v>198418.3876455491</v>
+        <v>198418.387645549</v>
       </c>
       <c r="D6" t="n">
-        <v>221825.2213191609</v>
+        <v>221825.2213191612</v>
       </c>
       <c r="E6" t="n">
-        <v>83488.92319547606</v>
+        <v>83437.89253329182</v>
       </c>
       <c r="F6" t="n">
-        <v>299228.2797521167</v>
+        <v>299177.2490899322</v>
       </c>
       <c r="G6" t="n">
-        <v>299228.2797521165</v>
+        <v>299177.2490899322</v>
       </c>
       <c r="H6" t="n">
-        <v>299228.2797521165</v>
+        <v>299177.2490899321</v>
       </c>
       <c r="I6" t="n">
-        <v>299228.2797521164</v>
+        <v>299177.249089932</v>
       </c>
       <c r="J6" t="n">
-        <v>172651.0111718273</v>
+        <v>172599.9805096431</v>
       </c>
       <c r="K6" t="n">
-        <v>280581.6793950968</v>
+        <v>280530.6487329124</v>
       </c>
       <c r="L6" t="n">
-        <v>299228.2797521164</v>
+        <v>299177.249089932</v>
       </c>
       <c r="M6" t="n">
-        <v>119164.4082969486</v>
+        <v>119113.3776347644</v>
       </c>
       <c r="N6" t="n">
-        <v>299228.2797521164</v>
+        <v>299177.2490899321</v>
       </c>
       <c r="O6" t="n">
-        <v>299228.2797521164</v>
+        <v>299177.249089932</v>
       </c>
       <c r="P6" t="n">
-        <v>299228.2797521164</v>
+        <v>299177.249089932</v>
       </c>
     </row>
   </sheetData>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>483.776691153969</v>
+        <v>483.7766911539686</v>
       </c>
       <c r="C4" t="n">
         <v>556.2278131155941</v>
@@ -26946,7 +26946,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>2.996581271752635e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27011,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>483.776691153969</v>
+        <v>483.7766911539686</v>
       </c>
       <c r="C4" t="n">
-        <v>72.45112196162512</v>
+        <v>72.45112196162557</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27035,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>483.776691153969</v>
+        <v>483.7766911539686</v>
       </c>
       <c r="K4" t="n">
-        <v>72.45112196162512</v>
+        <v>72.45112196162557</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27257,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>483.776691153969</v>
+        <v>483.7766911539686</v>
       </c>
       <c r="K4" t="n">
-        <v>72.45112196162512</v>
+        <v>72.45112196162557</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
@@ -27390,10 +27390,10 @@
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>390.3743495457128</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>361.9721532653366</v>
       </c>
       <c r="H2" t="n">
         <v>294.8896947407055</v>
@@ -27432,19 +27432,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27554,7 +27554,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>70.63934460637913</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27587,22 +27587,22 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>173.5654753938863</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>224.0793406271554</v>
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>245.3945739651546</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>218.7163152458132</v>
@@ -27675,13 +27675,13 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>34.71835988167322</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>400</v>
@@ -27776,19 +27776,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>69.14112569724669</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27821,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>46.56822717969948</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>134.4062914546842</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27839,7 +27839,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27852,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
         <v>400</v>
       </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27906,19 +27906,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>255.9418176472618</v>
       </c>
       <c r="X8" t="n">
-        <v>226.4593363808663</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28013,19 +28013,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>47.18544517283286</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>36.74534024663697</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
         <v>142.3583058069271</v>
@@ -28061,7 +28061,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28070,7 +28070,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28326,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>-3.656844941799826e-14</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>-3.656844941799826e-14</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>-3.656844941799826e-14</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>-3.656844941799826e-14</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-3.656844941799826e-14</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>-3.656844941799826e-14</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>-3.656844941799826e-14</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28380,22 +28380,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-3.656844941799826e-14</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>-3.656844941799826e-14</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>-3.656844941799826e-14</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>-3.656844941799826e-14</v>
       </c>
     </row>
     <row r="15">
@@ -28529,7 +28529,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>-2.937055962422225e-12</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -28620,7 +28620,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>-7.851904691651628e-13</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28809,7 +28809,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>-6.715036314435467e-13</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -30003,7 +30003,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>-8.139557993131504e-13</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30243,7 +30243,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>-4.867625201459207e-13</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -34701,28 +34701,28 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>483.776691153969</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>464.2301581780512</v>
+        <v>368.570673184458</v>
       </c>
       <c r="N2" t="n">
-        <v>483.776691153969</v>
+        <v>483.7766911539686</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>483.776691153969</v>
+        <v>483.7766911539686</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34774,34 +34774,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>307.7222173213833</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>483.776691153969</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>483.776691153969</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>108.6062353448172</v>
+        <v>483.7766911539686</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>483.7766911539686</v>
       </c>
       <c r="Q3" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34865,13 +34865,13 @@
         <v>358.2720417115361</v>
       </c>
       <c r="M4" t="n">
-        <v>395.137166636617</v>
+        <v>108.2599968491706</v>
       </c>
       <c r="N4" t="n">
         <v>381.3045564404402</v>
       </c>
       <c r="O4" t="n">
-        <v>72.14114201029598</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P4" t="n">
         <v>293.5345574968697</v>
@@ -34938,25 +34938,25 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>73.06155854104185</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>556.2278131155941</v>
+        <v>533.7539620806207</v>
       </c>
       <c r="N5" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P5" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,16 +35017,16 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>67.90411371775774</v>
       </c>
       <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
       <c r="N6" t="n">
-        <v>238.1458997847902</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -35035,10 +35035,10 @@
         <v>556.2278131155941</v>
       </c>
       <c r="Q6" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>58.07204871127072</v>
       </c>
       <c r="K7" t="n">
-        <v>228.8157587937756</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L7" t="n">
         <v>358.2720417115361</v>
@@ -35172,13 +35172,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L8" t="n">
-        <v>556.2278131155941</v>
+        <v>48.74406945557187</v>
       </c>
       <c r="M8" t="n">
         <v>556.2278131155941</v>
@@ -35187,10 +35187,10 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="P8" t="n">
-        <v>415.010189472638</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>158.2737632597931</v>
       </c>
       <c r="L9" t="n">
-        <v>444.605878150503</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35418,10 +35418,10 @@
         <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>1014.430405473796</v>
+        <v>480.2233885641281</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O11" t="n">
         <v>853.6814647988001</v>
@@ -35430,10 +35430,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
-        <v>333.1613907719473</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,19 +35485,19 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35506,7 +35506,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>208.6225309666485</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q12" t="n">
         <v>468.8338150129084</v>
@@ -35649,10 +35649,10 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>666.8514437878999</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>679.0534713570016</v>
       </c>
       <c r="M14" t="n">
         <v>1014.430405473796</v>
@@ -35661,7 +35661,7 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O14" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>715.433615311038</v>
@@ -35670,7 +35670,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35731,16 +35731,16 @@
         <v>596.4494207761006</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>1100.318127750374</v>
+        <v>385.2564605346102</v>
       </c>
       <c r="O15" t="n">
-        <v>130.1896540801013</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35813,7 +35813,7 @@
         <v>358.2720417115361</v>
       </c>
       <c r="M16" t="n">
-        <v>395.1371666366115</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N16" t="n">
         <v>381.3045564404402</v>
@@ -35825,7 +35825,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q16" t="n">
-        <v>128.2829598391535</v>
+        <v>128.2829598391505</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35892,19 +35892,19 @@
         <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>616.220827727605</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N17" t="n">
         <v>986.1121802895968</v>
       </c>
       <c r="O17" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q17" t="n">
-        <v>460.6924035395789</v>
+        <v>200.7306752811506</v>
       </c>
       <c r="R17" t="n">
         <v>118.7437726079824</v>
@@ -35959,16 +35959,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -35977,16 +35977,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P18" t="n">
-        <v>385.2564605346102</v>
+        <v>369.2878006663069</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36062,7 +36062,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q19" t="n">
-        <v>128.2829598391493</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,19 +36120,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>191.6381265752677</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>1014.430405473796</v>
+        <v>1005.643165314146</v>
       </c>
       <c r="N20" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>853.6814647988001</v>
@@ -36144,7 +36144,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -36211,19 +36211,19 @@
         <v>1066.653068662672</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>291.4703189309951</v>
       </c>
       <c r="O21" t="n">
-        <v>669.9344844018683</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R21" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36360,19 +36360,19 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L23" t="n">
-        <v>548.1076711799178</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>754.4686772153671</v>
       </c>
       <c r="N23" t="n">
         <v>986.1121802895968</v>
       </c>
       <c r="O23" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>715.433615311038</v>
@@ -36433,16 +36433,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>551.8435622166962</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>499.553882840162</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -36457,10 +36457,10 @@
         <v>723.4320374126243</v>
       </c>
       <c r="Q24" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36594,16 +36594,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L26" t="n">
-        <v>839.8024120319977</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N26" t="n">
         <v>986.1121802895968</v>
@@ -36612,13 +36612,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q26" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36682,16 +36682,16 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N27" t="n">
-        <v>634.6913501810429</v>
+        <v>291.4703189309951</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>468.8338150129084</v>
@@ -36837,7 +36837,7 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L29" t="n">
-        <v>191.6381265752678</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M29" t="n">
         <v>1014.430405473796</v>
@@ -36846,16 +36846,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O29" t="n">
-        <v>853.6814647988001</v>
+        <v>685.740567906198</v>
       </c>
       <c r="P29" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q29" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36922,7 +36922,7 @@
         <v>1066.653068662672</v>
       </c>
       <c r="N30" t="n">
-        <v>208.6225309666485</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -36931,10 +36931,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37071,7 +37071,7 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>188.528647712048</v>
       </c>
       <c r="L32" t="n">
         <v>939.015199615431</v>
@@ -37089,10 +37089,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
-        <v>69.78487510406572</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37153,10 +37153,10 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
         <v>726.6390748562019</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>1100.318127750374</v>
@@ -37311,13 +37311,13 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L35" t="n">
-        <v>839.8024120319977</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O35" t="n">
         <v>853.6814647988001</v>
@@ -37396,7 +37396,7 @@
         <v>1066.653068662672</v>
       </c>
       <c r="N36" t="n">
-        <v>291.4703189309951</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37405,7 +37405,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37548,13 +37548,13 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>958.5461846399799</v>
       </c>
       <c r="N38" t="n">
-        <v>886.8993927061638</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O38" t="n">
         <v>853.6814647988001</v>
@@ -37566,7 +37566,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,31 +37618,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L39" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0.3921559610386215</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R39" t="n">
         <v>82.84778796434657</v>
@@ -37788,22 +37788,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>1014.430405473796</v>
+        <v>19.53098502454905</v>
       </c>
       <c r="N41" t="n">
         <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
-        <v>200.7306752811501</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,19 +37855,19 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L42" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>422.5024167557669</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -37876,13 +37876,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>487.2320584543432</v>
       </c>
       <c r="Q42" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R42" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37955,7 +37955,7 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P43" t="n">
-        <v>293.5345574968641</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q43" t="n">
         <v>128.2829598391535</v>
@@ -38019,7 +38019,7 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
         <v>939.015199615431</v>
@@ -38028,19 +38028,19 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N44" t="n">
-        <v>713.9484244620658</v>
+        <v>587.9026025434059</v>
       </c>
       <c r="O44" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38107,16 +38107,16 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q45" t="n">
-        <v>369.3493785286307</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R45" t="n">
         <v>82.84778796434657</v>
